--- a/teaching/traditional_assets/database/data/malaysia/malaysia_software_entertainment.xlsx
+++ b/teaching/traditional_assets/database/data/malaysia/malaysia_software_entertainment.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="klse_jcbnext" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0425</v>
+        <v>0.03649999999999999</v>
       </c>
       <c r="E2">
-        <v>-0.299</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="G2">
-        <v>-0.2874468085106383</v>
+        <v>-0.4226860178175582</v>
       </c>
       <c r="H2">
-        <v>-0.2874468085106383</v>
+        <v>-0.4257392613660128</v>
       </c>
       <c r="I2">
-        <v>-0.422666473766578</v>
+        <v>-0.5759971187059025</v>
       </c>
       <c r="J2">
-        <v>-0.4121351519285813</v>
+        <v>-0.5541883929693809</v>
       </c>
       <c r="K2">
-        <v>-6.718</v>
+        <v>-5.032</v>
       </c>
       <c r="L2">
-        <v>-0.4764539007092199</v>
+        <v>-0.2104646785729223</v>
       </c>
       <c r="M2">
-        <v>2.188</v>
+        <v>1.848</v>
       </c>
       <c r="N2">
-        <v>0.01018859138533178</v>
+        <v>0.002558139534883721</v>
       </c>
       <c r="O2">
-        <v>-0.3256921702887765</v>
+        <v>-0.3672496025437202</v>
       </c>
       <c r="P2">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="Q2">
-        <v>0.006100116414435391</v>
+        <v>0.001785714285714286</v>
       </c>
       <c r="R2">
-        <v>-0.1949985114617446</v>
+        <v>-0.2563593004769475</v>
       </c>
       <c r="S2">
-        <v>0.8780000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="T2">
-        <v>0.4012797074954296</v>
+        <v>0.301948051948052</v>
       </c>
       <c r="U2">
-        <v>29.73</v>
+        <v>32.171</v>
       </c>
       <c r="V2">
-        <v>0.1384400465657742</v>
+        <v>0.04453349944629015</v>
       </c>
       <c r="W2">
-        <v>-0.1117832749813465</v>
+        <v>-0.2297652994077649</v>
       </c>
       <c r="X2">
-        <v>0.09442656819960103</v>
+        <v>0.07583182132568494</v>
       </c>
       <c r="Y2">
-        <v>-0.2062098431809475</v>
+        <v>-0.3055971207334498</v>
       </c>
       <c r="Z2">
-        <v>0.1557168176088532</v>
+        <v>0.2776772026677822</v>
       </c>
       <c r="AA2">
-        <v>-0.00655744042988194</v>
+        <v>-0.2517809369752378</v>
       </c>
       <c r="AB2">
-        <v>0.09428670729500283</v>
+        <v>0.07577594260909798</v>
       </c>
       <c r="AC2">
-        <v>-0.1008394501398689</v>
+        <v>-0.3275542040402234</v>
       </c>
       <c r="AD2">
-        <v>0.7829999999999999</v>
+        <v>1.639</v>
       </c>
       <c r="AE2">
-        <v>0.222986400543745</v>
+        <v>0.007575555697113359</v>
       </c>
       <c r="AF2">
-        <v>1.005986400543745</v>
+        <v>1.646575555697113</v>
       </c>
       <c r="AG2">
-        <v>-28.72401359945626</v>
+        <v>-30.52442444430289</v>
       </c>
       <c r="AH2">
-        <v>0.004662611764923013</v>
+        <v>0.002274129332679167</v>
       </c>
       <c r="AI2">
-        <v>0.008540798708623804</v>
+        <v>0.01021280486806773</v>
       </c>
       <c r="AJ2">
-        <v>-0.15440860793292</v>
+        <v>-0.0441183726131486</v>
       </c>
       <c r="AK2">
-        <v>-0.3262017129511014</v>
+        <v>-0.2365215475028378</v>
       </c>
       <c r="AL2">
-        <v>0.07100000000000001</v>
+        <v>0.412</v>
       </c>
       <c r="AM2">
-        <v>-0.308</v>
+        <v>-0.108</v>
       </c>
       <c r="AN2">
-        <v>-0.2533980582524271</v>
+        <v>-0.1523800669393827</v>
       </c>
       <c r="AO2">
-        <v>-85.32394366197182</v>
+        <v>-33.43446601941747</v>
       </c>
       <c r="AP2">
-        <v>9.295797281377428</v>
+        <v>2.837897400920685</v>
       </c>
       <c r="AQ2">
-        <v>19.66883116883117</v>
+        <v>127.5462962962963</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +727,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.08799999999999999</v>
+        <v>-0.27</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -749,31 +751,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.48</v>
+        <v>0.911</v>
       </c>
       <c r="V3">
-        <v>0.3746835443037975</v>
+        <v>0.1359701492537314</v>
       </c>
       <c r="W3">
-        <v>-0.06717557251908396</v>
+        <v>-0.1914893617021277</v>
       </c>
       <c r="X3">
-        <v>0.0942959269559011</v>
+        <v>0.07577199545535962</v>
       </c>
       <c r="Y3">
-        <v>-0.1614714994749851</v>
+        <v>-0.2672613571574873</v>
       </c>
       <c r="Z3">
         <v>-0</v>
       </c>
       <c r="AA3">
-        <v>0.6299999999999999</v>
+        <v>3.571428571428568</v>
       </c>
       <c r="AB3">
-        <v>0.0942959269559011</v>
+        <v>0.07577199545535962</v>
       </c>
       <c r="AC3">
-        <v>0.5357040730440988</v>
+        <v>3.495656575973209</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -785,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-1.48</v>
+        <v>-0.911</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -794,19 +796,22 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.5991902834008097</v>
+        <v>-0.1573674209708067</v>
       </c>
       <c r="AK3">
-        <v>21.14285714285712</v>
+        <v>-3.386617100371748</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="AM3">
-        <v>-0.013</v>
+        <v>0.028</v>
+      </c>
+      <c r="AO3">
+        <v>-8.928571428571429</v>
       </c>
       <c r="AQ3">
-        <v>14.53846153846154</v>
+        <v>-8.928571428571429</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +822,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JcbNext Berhad (KLSE:JCBNEXT)</t>
+          <t>Hong Seng Consolidated Berhad (KLSE:HONGSENG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -825,119 +830,113 @@
           <t>Software (Entertainment)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>0.0425</v>
-      </c>
-      <c r="E4">
-        <v>-0.299</v>
-      </c>
       <c r="G4">
-        <v>0.312093023255814</v>
+        <v>-0.8972868217054263</v>
       </c>
       <c r="H4">
-        <v>0.312093023255814</v>
+        <v>-0.9108527131782945</v>
       </c>
       <c r="I4">
-        <v>0.3539534883720931</v>
+        <v>-1.531007751937985</v>
       </c>
       <c r="J4">
-        <v>0.3186765186279848</v>
+        <v>-1.531007751937985</v>
       </c>
       <c r="K4">
-        <v>2.68</v>
+        <v>-1.77</v>
       </c>
       <c r="L4">
-        <v>1.246511627906977</v>
+        <v>-3.430232558139535</v>
       </c>
       <c r="M4">
-        <v>2.188</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.04548856548856549</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.8164179104477612</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.31</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.02723492723492724</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.4888059701492537</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.8780000000000001</v>
-      </c>
-      <c r="T4">
-        <v>0.4012797074954296</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>4.45</v>
+        <v>5.74</v>
       </c>
       <c r="V4">
-        <v>0.09251559251559252</v>
+        <v>0.04267657992565056</v>
       </c>
       <c r="W4">
-        <v>0.03358395989974938</v>
+        <v>-0.4145199063231851</v>
       </c>
       <c r="X4">
-        <v>0.09432084444018833</v>
+        <v>0.07590157878032909</v>
       </c>
       <c r="Y4">
-        <v>-0.06073688454043896</v>
+        <v>-0.4904214851035142</v>
       </c>
       <c r="Z4">
-        <v>0.02999023573720184</v>
+        <v>-0.05879001936880483</v>
       </c>
       <c r="AA4">
-        <v>0.009557183917564056</v>
+        <v>0.09000797539022444</v>
       </c>
       <c r="AB4">
-        <v>0.09429236301010585</v>
+        <v>0.07594174725339406</v>
       </c>
       <c r="AC4">
-        <v>-0.0847351790925418</v>
+        <v>0.01406622813683038</v>
       </c>
       <c r="AD4">
-        <v>0.021</v>
+        <v>0.345</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.021</v>
+        <v>0.345</v>
       </c>
       <c r="AG4">
-        <v>-4.429</v>
+        <v>-5.395</v>
       </c>
       <c r="AH4">
-        <v>0.0004363999085638287</v>
+        <v>0.002558493084652749</v>
       </c>
       <c r="AI4">
-        <v>0.0002671042087991758</v>
+        <v>0.01530272787757818</v>
       </c>
       <c r="AJ4">
-        <v>-0.1014174165922466</v>
+        <v>-0.04178769218852872</v>
       </c>
       <c r="AK4">
-        <v>-0.05971336506181663</v>
+        <v>-0.3210354061291283</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.083</v>
       </c>
       <c r="AM4">
-        <v>-0.014</v>
+        <v>-0.194</v>
       </c>
       <c r="AN4">
-        <v>0.0267515923566879</v>
+        <v>-0.4171704957678355</v>
+      </c>
+      <c r="AO4">
+        <v>-9.518072289156626</v>
       </c>
       <c r="AP4">
-        <v>-5.642038216560509</v>
+        <v>6.523579201934704</v>
       </c>
       <c r="AQ4">
-        <v>-54.35714285714285</v>
+        <v>4.072164948453608</v>
       </c>
     </row>
     <row r="5">
@@ -948,7 +947,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MSCM Holdings Berhad (KLSE:MYSCM)</t>
+          <t>JcbNext Berhad (KLSE:JCBNEXT)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -956,113 +955,122 @@
           <t>Software (Entertainment)</t>
         </is>
       </c>
+      <c r="D5">
+        <v>-0.209</v>
+      </c>
+      <c r="E5">
+        <v>-0.6820000000000001</v>
+      </c>
       <c r="G5">
-        <v>-0.07755102040816327</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>-0.07755102040816327</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
-        <v>-0.07142857142857144</v>
+        <v>0.191875</v>
       </c>
       <c r="J5">
-        <v>-0.07142857142857144</v>
+        <v>0.1485775523560209</v>
       </c>
       <c r="K5">
-        <v>-3.07</v>
+        <v>1.49</v>
       </c>
       <c r="L5">
-        <v>-1.566326530612245</v>
+        <v>0.9312499999999999</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>1.848</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.03957173447537473</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.240268456375839</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>1.29</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.02762312633832976</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.865771812080537</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.301948051948052</v>
       </c>
       <c r="U5">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="V5">
-        <v>1.326732673267327</v>
+        <v>0.2955032119914347</v>
       </c>
       <c r="W5">
-        <v>-0.3818407960199005</v>
+        <v>0.01898089171974522</v>
       </c>
       <c r="X5">
-        <v>0.09629065322161684</v>
+        <v>0.07580120327863037</v>
       </c>
       <c r="Y5">
-        <v>-0.4781314492415173</v>
+        <v>-0.05682031155888514</v>
       </c>
       <c r="Z5">
-        <v>0.3174089068825911</v>
+        <v>0.02160089643720215</v>
       </c>
       <c r="AA5">
-        <v>-0.02267206477732794</v>
+        <v>0.003209408321335388</v>
       </c>
       <c r="AB5">
-        <v>0.09427165640986812</v>
+        <v>0.07577049158148977</v>
       </c>
       <c r="AC5">
-        <v>-0.1169437211871961</v>
+        <v>-0.07256108326015438</v>
       </c>
       <c r="AD5">
-        <v>0.353</v>
+        <v>0.027</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.353</v>
+        <v>0.027</v>
       </c>
       <c r="AG5">
-        <v>-13.047</v>
+        <v>-13.773</v>
       </c>
       <c r="AH5">
-        <v>0.0337702095092318</v>
+        <v>0.0005778243841890127</v>
       </c>
       <c r="AI5">
-        <v>0.07635734371620161</v>
+        <v>0.0003556047255916867</v>
       </c>
       <c r="AJ5">
-        <v>4.427214116050219</v>
+        <v>-0.4182889422054849</v>
       </c>
       <c r="AK5">
-        <v>1.486498803691466</v>
+        <v>-0.2216910521995268</v>
       </c>
       <c r="AL5">
-        <v>0.038</v>
+        <v>0.004</v>
       </c>
       <c r="AM5">
-        <v>0.034</v>
+        <v>0.003</v>
       </c>
       <c r="AN5">
-        <v>5.693548387096774</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="AO5">
-        <v>-3.68421052631579</v>
+        <v>76.75</v>
       </c>
       <c r="AP5">
-        <v>-210.4354838709677</v>
+        <v>-42.50925925925926</v>
       </c>
       <c r="AQ5">
-        <v>-4.11764705882353</v>
+        <v>102.3333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -1082,22 +1090,22 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.4364364364364365</v>
+        <v>-0.2716814159292035</v>
       </c>
       <c r="H6">
-        <v>-0.4364364364364365</v>
+        <v>-0.2716814159292035</v>
       </c>
       <c r="I6">
-        <v>-0.6397995275384134</v>
+        <v>-0.4495575221238938</v>
       </c>
       <c r="J6">
-        <v>-0.6397995275384134</v>
+        <v>-0.4488737844476597</v>
       </c>
       <c r="K6">
-        <v>-6.24</v>
+        <v>3.83</v>
       </c>
       <c r="L6">
-        <v>-0.6246246246246246</v>
+        <v>0.3389380530973451</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1106,7 +1114,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1115,79 +1123,9038 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="V6">
-        <v>0.06815203145478375</v>
+        <v>0.02588175589951789</v>
       </c>
       <c r="W6">
-        <v>-0.156390977443609</v>
+        <v>0.1182098765432099</v>
       </c>
       <c r="X6">
-        <v>0.09453229195901373</v>
+        <v>0.07585685561865194</v>
       </c>
       <c r="Y6">
-        <v>-0.2509232694026228</v>
+        <v>0.04235302092455795</v>
       </c>
       <c r="Z6">
-        <v>0.7694093086528215</v>
+        <v>1.128983914476971</v>
       </c>
       <c r="AA6">
-        <v>-0.4922677121597325</v>
+        <v>-0.506771282271811</v>
       </c>
       <c r="AB6">
-        <v>0.09428105157989979</v>
+        <v>0.0757760425484813</v>
       </c>
       <c r="AC6">
-        <v>-0.5865487637396323</v>
+        <v>-0.5825473248202924</v>
       </c>
       <c r="AD6">
-        <v>0.409</v>
+        <v>0.662</v>
       </c>
       <c r="AE6">
-        <v>0.222986400543745</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.631986400543745</v>
+        <v>0.662</v>
       </c>
       <c r="AG6">
-        <v>-9.768013599456255</v>
+        <v>-9.537999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.00412437647901889</v>
+        <v>0.001676959788429484</v>
       </c>
       <c r="AI6">
-        <v>0.01907481166095653</v>
+        <v>0.01673322885597291</v>
       </c>
       <c r="AJ6">
-        <v>-0.06838813801877554</v>
+        <v>-0.02480224255126611</v>
       </c>
       <c r="AK6">
-        <v>-0.4297034771771026</v>
+        <v>-0.324841632041414</v>
       </c>
       <c r="AL6">
-        <v>0.033</v>
+        <v>0.063</v>
       </c>
       <c r="AM6">
-        <v>-0.3149999999999999</v>
+        <v>-0.133</v>
       </c>
       <c r="AN6">
-        <v>-0.1038862077724155</v>
+        <v>-0.2330985915492958</v>
       </c>
       <c r="AO6">
-        <v>-196.6666666666667</v>
+        <v>-80.63492063492063</v>
       </c>
       <c r="AP6">
-        <v>2.481080416422722</v>
+        <v>3.358450704225352</v>
       </c>
       <c r="AQ6">
-        <v>20.60317460317461</v>
+        <v>38.19548872180451</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>iCar Asia Limited (ASX:ICQ)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Software (Entertainment)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>0.282</v>
+      </c>
+      <c r="G7">
+        <v>-0.6490384615384616</v>
+      </c>
+      <c r="H7">
+        <v>-0.6490384615384616</v>
+      </c>
+      <c r="I7">
+        <v>-0.7163461538461539</v>
+      </c>
+      <c r="J7">
+        <v>-0.7163461538461539</v>
+      </c>
+      <c r="K7">
+        <v>-7.8</v>
+      </c>
+      <c r="L7">
+        <v>-0.75</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1.52</v>
+      </c>
+      <c r="V7">
+        <v>0.01174652241112828</v>
+      </c>
+      <c r="W7">
+        <v>-0.2680412371134021</v>
+      </c>
+      <c r="X7">
+        <v>0.07600819192761908</v>
+      </c>
+      <c r="Y7">
+        <v>-0.3440494290410211</v>
+      </c>
+      <c r="Z7">
+        <v>0.9573782564669059</v>
+      </c>
+      <c r="AA7">
+        <v>-0.6858142317960048</v>
+      </c>
+      <c r="AB7">
+        <v>0.07578322638916657</v>
+      </c>
+      <c r="AC7">
+        <v>-0.7615974581851713</v>
+      </c>
+      <c r="AD7">
+        <v>0.605</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.605</v>
+      </c>
+      <c r="AG7">
+        <v>-0.915</v>
+      </c>
+      <c r="AH7">
+        <v>0.004653667166647437</v>
+      </c>
+      <c r="AI7">
+        <v>0.02749375142013179</v>
+      </c>
+      <c r="AJ7">
+        <v>-0.007121453866210063</v>
+      </c>
+      <c r="AK7">
+        <v>-0.0446668293873566</v>
+      </c>
+      <c r="AL7">
+        <v>0.234</v>
+      </c>
+      <c r="AM7">
+        <v>0.188</v>
+      </c>
+      <c r="AN7">
+        <v>-0.08755426917510853</v>
+      </c>
+      <c r="AO7">
+        <v>-31.83760683760684</v>
+      </c>
+      <c r="AP7">
+        <v>0.1324167872648336</v>
+      </c>
+      <c r="AQ7">
+        <v>-39.62765957446808</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blow &amp; Drive Interlock Corporation (OTCPK:BDIC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Software (Entertainment)</t>
+        </is>
+      </c>
+      <c r="G8">
+        <v>-6.698924731182796</v>
+      </c>
+      <c r="H8">
+        <v>-7.408602150537634</v>
+      </c>
+      <c r="I8">
+        <v>-5.467904420854008</v>
+      </c>
+      <c r="J8">
+        <v>-5.467904420854008</v>
+      </c>
+      <c r="K8">
+        <v>-0.512</v>
+      </c>
+      <c r="L8">
+        <v>-5.505376344086022</v>
+      </c>
+      <c r="M8">
+        <v>-0</v>
+      </c>
+      <c r="N8">
+        <v>-0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-0</v>
+      </c>
+      <c r="Q8">
+        <v>-0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.07580678703271794</v>
+      </c>
+      <c r="Z8">
+        <v>12.27632713933281</v>
+      </c>
+      <c r="AA8">
+        <v>-67.1257834370079</v>
+      </c>
+      <c r="AB8">
+        <v>0.07577584266971467</v>
+      </c>
+      <c r="AC8">
+        <v>-67.20155927967761</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0.007575555697113359</v>
+      </c>
+      <c r="AF8">
+        <v>0.007575555697113359</v>
+      </c>
+      <c r="AG8">
+        <v>0.007575555697113359</v>
+      </c>
+      <c r="AH8">
+        <v>0.000688212918347177</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>0.000688212918347177</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>-0</v>
+      </c>
+      <c r="AP8">
+        <v>-0.01506074691275022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>JcbNext Berhad (KLSE:JCBNEXT)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KLSE:JCBNEXT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Software (Entertainment)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.000577824384189013</v>
+      </c>
+      <c r="F2">
+        <v>0.06</v>
+      </c>
+      <c r="G2">
+        <v>46.7</v>
+      </c>
+      <c r="H2">
+        <v>44.1644582309254</v>
+      </c>
+      <c r="I2">
+        <v>32.927</v>
+      </c>
+      <c r="J2">
+        <v>33.1680782309254</v>
+      </c>
+      <c r="K2">
+        <v>0.027</v>
+      </c>
+      <c r="L2">
+        <v>2.80362</v>
+      </c>
+      <c r="M2">
+        <v>0.0757704915814898</v>
+      </c>
+      <c r="N2">
+        <v>0.0752873587208024</v>
+      </c>
+      <c r="O2">
+        <v>0.0226506302308917</v>
+      </c>
+      <c r="P2">
+        <v>0.017176</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.07580120327863039</v>
+      </c>
+      <c r="T2">
+        <v>0.0789965943838324</v>
+      </c>
+      <c r="U2">
+        <v>1.13057714943555</v>
+      </c>
+      <c r="V2">
+        <v>1.18490152236328</v>
+      </c>
+      <c r="W2">
+        <v>4.624236440712902</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>46.7</v>
+      </c>
+      <c r="AB2">
+        <v>0.05882057965865632</v>
+      </c>
+      <c r="AC2">
+        <v>0.02980346083012063</v>
+      </c>
+      <c r="AD2">
+        <v>0.24</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.324</v>
+      </c>
+      <c r="AH2">
+        <v>0.031</v>
+      </c>
+      <c r="AI2">
+        <v>0.005999999999999991</v>
+      </c>
+      <c r="AJ2">
+        <v>0.027</v>
+      </c>
+      <c r="AK2">
+        <v>0.027</v>
+      </c>
+      <c r="AL2">
+        <v>0.004</v>
+      </c>
+      <c r="AM2">
+        <v>0.027</v>
+      </c>
+      <c r="AN2">
+        <v>13.8</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07577199545535962</v>
+      </c>
+      <c r="C2">
+        <v>46.72625505388288</v>
+      </c>
+      <c r="D2">
+        <v>32.92625505388288</v>
+      </c>
+      <c r="E2">
+        <v>-0.027</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>13.8</v>
+      </c>
+      <c r="H2">
+        <v>46.7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.324</v>
+      </c>
+      <c r="K2">
+        <v>0.031</v>
+      </c>
+      <c r="L2">
+        <v>0.293</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.293</v>
+      </c>
+      <c r="O2">
+        <v>0.07032000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.22268</v>
+      </c>
+      <c r="Q2">
+        <v>0.25368</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07577199545535962</v>
+      </c>
+      <c r="T2">
+        <v>1.130080591539653</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.24</v>
+      </c>
+      <c r="W2">
+        <v>0.012312</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07564258266626678</v>
+      </c>
+      <c r="C3">
+        <v>46.32321346238997</v>
+      </c>
+      <c r="D3">
+        <v>32.99048346238997</v>
+      </c>
+      <c r="E3">
+        <v>0.4402700000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.4672700000000001</v>
+      </c>
+      <c r="G3">
+        <v>13.8</v>
+      </c>
+      <c r="H3">
+        <v>46.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.324</v>
+      </c>
+      <c r="K3">
+        <v>0.031</v>
+      </c>
+      <c r="L3">
+        <v>0.293</v>
+      </c>
+      <c r="M3">
+        <v>0.007569774</v>
+      </c>
+      <c r="N3">
+        <v>0.2854302260000001</v>
+      </c>
+      <c r="O3">
+        <v>0.06850325424000002</v>
+      </c>
+      <c r="P3">
+        <v>0.21692697176</v>
+      </c>
+      <c r="Q3">
+        <v>0.24792697176</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07628228552148159</v>
+      </c>
+      <c r="T3">
+        <v>1.138755957696927</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.24</v>
+      </c>
+      <c r="W3">
+        <v>0.012312</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>38.70657168893022</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07551316987717388</v>
+      </c>
+      <c r="C4">
+        <v>45.92042293809415</v>
+      </c>
+      <c r="D4">
+        <v>33.05496293809414</v>
+      </c>
+      <c r="E4">
+        <v>0.9075400000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.9345400000000001</v>
+      </c>
+      <c r="G4">
+        <v>13.8</v>
+      </c>
+      <c r="H4">
+        <v>46.7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.324</v>
+      </c>
+      <c r="K4">
+        <v>0.031</v>
+      </c>
+      <c r="L4">
+        <v>0.293</v>
+      </c>
+      <c r="M4">
+        <v>0.015139548</v>
+      </c>
+      <c r="N4">
+        <v>0.277860452</v>
+      </c>
+      <c r="O4">
+        <v>0.06668650848</v>
+      </c>
+      <c r="P4">
+        <v>0.21117394352</v>
+      </c>
+      <c r="Q4">
+        <v>0.24217394352</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.0768029896705856</v>
+      </c>
+      <c r="T4">
+        <v>1.147608372143125</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.24</v>
+      </c>
+      <c r="W4">
+        <v>0.012312</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>19.35328584446511</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07542023708808104</v>
+      </c>
+      <c r="C5">
+        <v>45.49961208637436</v>
+      </c>
+      <c r="D5">
+        <v>33.10142208637435</v>
+      </c>
+      <c r="E5">
+        <v>1.37481</v>
+      </c>
+      <c r="F5">
+        <v>1.40181</v>
+      </c>
+      <c r="G5">
+        <v>13.8</v>
+      </c>
+      <c r="H5">
+        <v>46.7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.324</v>
+      </c>
+      <c r="K5">
+        <v>0.031</v>
+      </c>
+      <c r="L5">
+        <v>0.293</v>
+      </c>
+      <c r="M5">
+        <v>0.024952218</v>
+      </c>
+      <c r="N5">
+        <v>0.268047782</v>
+      </c>
+      <c r="O5">
+        <v>0.06433146768</v>
+      </c>
+      <c r="P5">
+        <v>0.20371631432</v>
+      </c>
+      <c r="Q5">
+        <v>0.23471631432</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07733442998771241</v>
+      </c>
+      <c r="T5">
+        <v>1.156643310598523</v>
+      </c>
+      <c r="U5">
+        <v>0.0178</v>
+      </c>
+      <c r="V5">
+        <v>0.24</v>
+      </c>
+      <c r="W5">
+        <v>0.013528</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>11.74244309664175</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07540330429898817</v>
+      </c>
+      <c r="C6">
+        <v>45.04082122981214</v>
+      </c>
+      <c r="D6">
+        <v>33.10990122981213</v>
+      </c>
+      <c r="E6">
+        <v>1.84208</v>
+      </c>
+      <c r="F6">
+        <v>1.86908</v>
+      </c>
+      <c r="G6">
+        <v>13.8</v>
+      </c>
+      <c r="H6">
+        <v>46.7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.324</v>
+      </c>
+      <c r="K6">
+        <v>0.031</v>
+      </c>
+      <c r="L6">
+        <v>0.293</v>
+      </c>
+      <c r="M6">
+        <v>0.03943758800000001</v>
+      </c>
+      <c r="N6">
+        <v>0.253562412</v>
+      </c>
+      <c r="O6">
+        <v>0.06085497888</v>
+      </c>
+      <c r="P6">
+        <v>0.19270743312</v>
+      </c>
+      <c r="Q6">
+        <v>0.22370743312</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07787694197811268</v>
+      </c>
+      <c r="T6">
+        <v>1.165866476938409</v>
+      </c>
+      <c r="U6">
+        <v>0.0211</v>
+      </c>
+      <c r="V6">
+        <v>0.24</v>
+      </c>
+      <c r="W6">
+        <v>0.016036</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>7.429460442661958</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07536813150989531</v>
+      </c>
+      <c r="C7">
+        <v>44.59117799700271</v>
+      </c>
+      <c r="D7">
+        <v>33.12752799700272</v>
+      </c>
+      <c r="E7">
+        <v>2.30935</v>
+      </c>
+      <c r="F7">
+        <v>2.33635</v>
+      </c>
+      <c r="G7">
+        <v>13.8</v>
+      </c>
+      <c r="H7">
+        <v>46.7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.324</v>
+      </c>
+      <c r="K7">
+        <v>0.031</v>
+      </c>
+      <c r="L7">
+        <v>0.293</v>
+      </c>
+      <c r="M7">
+        <v>0.05280151</v>
+      </c>
+      <c r="N7">
+        <v>0.24019849</v>
+      </c>
+      <c r="O7">
+        <v>0.05764763760000001</v>
+      </c>
+      <c r="P7">
+        <v>0.1825508524</v>
+      </c>
+      <c r="Q7">
+        <v>0.2135508524</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07843087527357401</v>
+      </c>
+      <c r="T7">
+        <v>1.175283815201239</v>
+      </c>
+      <c r="U7">
+        <v>0.0226</v>
+      </c>
+      <c r="V7">
+        <v>0.24</v>
+      </c>
+      <c r="W7">
+        <v>0.017176</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>5.549083728855482</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07528735872080244</v>
+      </c>
+      <c r="C8">
+        <v>44.16445823092541</v>
+      </c>
+      <c r="D8">
+        <v>33.16807823092542</v>
+      </c>
+      <c r="E8">
+        <v>2.77662</v>
+      </c>
+      <c r="F8">
+        <v>2.80362</v>
+      </c>
+      <c r="G8">
+        <v>13.8</v>
+      </c>
+      <c r="H8">
+        <v>46.7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.324</v>
+      </c>
+      <c r="K8">
+        <v>0.031</v>
+      </c>
+      <c r="L8">
+        <v>0.293</v>
+      </c>
+      <c r="M8">
+        <v>0.06336181199999999</v>
+      </c>
+      <c r="N8">
+        <v>0.229638188</v>
+      </c>
+      <c r="O8">
+        <v>0.05511316512000001</v>
+      </c>
+      <c r="P8">
+        <v>0.17452502288</v>
+      </c>
+      <c r="Q8">
+        <v>0.20552502288</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07899659438383239</v>
+      </c>
+      <c r="T8">
+        <v>1.184901522363279</v>
+      </c>
+      <c r="U8">
+        <v>0.0226</v>
+      </c>
+      <c r="V8">
+        <v>0.24</v>
+      </c>
+      <c r="W8">
+        <v>0.017176</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>4.624236440712902</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.08032833650890432</v>
+      </c>
+      <c r="C9">
+        <v>41.34320454139948</v>
+      </c>
+      <c r="D9">
+        <v>30.81409454139948</v>
+      </c>
+      <c r="E9">
+        <v>3.24389</v>
+      </c>
+      <c r="F9">
+        <v>3.270890000000001</v>
+      </c>
+      <c r="G9">
+        <v>13.8</v>
+      </c>
+      <c r="H9">
+        <v>46.7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.324</v>
+      </c>
+      <c r="K9">
+        <v>0.031</v>
+      </c>
+      <c r="L9">
+        <v>0.293</v>
+      </c>
+      <c r="M9">
+        <v>0.35652701</v>
+      </c>
+      <c r="N9">
+        <v>-0.06352700999999999</v>
+      </c>
+      <c r="O9">
+        <v>-0.0152464824</v>
+      </c>
+      <c r="P9">
+        <v>-0.0482805276</v>
+      </c>
+      <c r="Q9">
+        <v>-0.0172805276</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07978843872706444</v>
+      </c>
+      <c r="T9">
+        <v>1.198363551262471</v>
+      </c>
+      <c r="U9">
+        <v>0.109</v>
+      </c>
+      <c r="V9">
+        <v>0.1972361084227532</v>
+      </c>
+      <c r="W9">
+        <v>0.0875012641819199</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.8218171184281382</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.08402557131705495</v>
+      </c>
+      <c r="C10">
+        <v>39.35133003303483</v>
+      </c>
+      <c r="D10">
+        <v>29.28949003303483</v>
+      </c>
+      <c r="E10">
+        <v>3.71116</v>
+      </c>
+      <c r="F10">
+        <v>3.738160000000001</v>
+      </c>
+      <c r="G10">
+        <v>13.8</v>
+      </c>
+      <c r="H10">
+        <v>46.7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.324</v>
+      </c>
+      <c r="K10">
+        <v>0.031</v>
+      </c>
+      <c r="L10">
+        <v>0.293</v>
+      </c>
+      <c r="M10">
+        <v>0.524090032</v>
+      </c>
+      <c r="N10">
+        <v>-0.231090032</v>
+      </c>
+      <c r="O10">
+        <v>-0.05546160768</v>
+      </c>
+      <c r="P10">
+        <v>-0.17562842432</v>
+      </c>
+      <c r="Q10">
+        <v>-0.14462842432</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.08077661176556582</v>
+      </c>
+      <c r="T10">
+        <v>1.215163335355655</v>
+      </c>
+      <c r="U10">
+        <v>0.1402</v>
+      </c>
+      <c r="V10">
+        <v>0.134175419692012</v>
+      </c>
+      <c r="W10">
+        <v>0.1213886061591799</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.5590642487167168</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.08941853048662599</v>
+      </c>
+      <c r="C11">
+        <v>36.9125183324281</v>
+      </c>
+      <c r="D11">
+        <v>27.3179483324281</v>
+      </c>
+      <c r="E11">
+        <v>4.17843</v>
+      </c>
+      <c r="F11">
+        <v>4.20543</v>
+      </c>
+      <c r="G11">
+        <v>13.8</v>
+      </c>
+      <c r="H11">
+        <v>46.7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.324</v>
+      </c>
+      <c r="K11">
+        <v>0.031</v>
+      </c>
+      <c r="L11">
+        <v>0.293</v>
+      </c>
+      <c r="M11">
+        <v>0.772537491</v>
+      </c>
+      <c r="N11">
+        <v>-0.479537491</v>
+      </c>
+      <c r="O11">
+        <v>-0.11508899784</v>
+      </c>
+      <c r="P11">
+        <v>-0.36444849316</v>
+      </c>
+      <c r="Q11">
+        <v>-0.33344849316</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.08174773845482593</v>
+      </c>
+      <c r="T11">
+        <v>1.23167331697936</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.09102470859889958</v>
+      </c>
+      <c r="W11">
+        <v>0.1669787610303821</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.3792696191620816</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.091162530486626</v>
+      </c>
+      <c r="C12">
+        <v>35.86326654407453</v>
+      </c>
+      <c r="D12">
+        <v>26.73596654407453</v>
+      </c>
+      <c r="E12">
+        <v>4.645700000000001</v>
+      </c>
+      <c r="F12">
+        <v>4.672700000000001</v>
+      </c>
+      <c r="G12">
+        <v>13.8</v>
+      </c>
+      <c r="H12">
+        <v>46.7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.324</v>
+      </c>
+      <c r="K12">
+        <v>0.031</v>
+      </c>
+      <c r="L12">
+        <v>0.293</v>
+      </c>
+      <c r="M12">
+        <v>0.8583749900000002</v>
+      </c>
+      <c r="N12">
+        <v>-0.5653749900000001</v>
+      </c>
+      <c r="O12">
+        <v>-0.1356899976</v>
+      </c>
+      <c r="P12">
+        <v>-0.4296849924000001</v>
+      </c>
+      <c r="Q12">
+        <v>-0.3986849924000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.08255271332654622</v>
+      </c>
+      <c r="T12">
+        <v>1.245358576056909</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.08192223773900961</v>
+      </c>
+      <c r="W12">
+        <v>0.1686508849273439</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.3413426572458733</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.09290653048662598</v>
+      </c>
+      <c r="C13">
+        <v>34.83829458728392</v>
+      </c>
+      <c r="D13">
+        <v>26.17826458728392</v>
+      </c>
+      <c r="E13">
+        <v>5.112970000000001</v>
+      </c>
+      <c r="F13">
+        <v>5.139970000000001</v>
+      </c>
+      <c r="G13">
+        <v>13.8</v>
+      </c>
+      <c r="H13">
+        <v>46.7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.324</v>
+      </c>
+      <c r="K13">
+        <v>0.031</v>
+      </c>
+      <c r="L13">
+        <v>0.293</v>
+      </c>
+      <c r="M13">
+        <v>0.9442124890000002</v>
+      </c>
+      <c r="N13">
+        <v>-0.6512124890000002</v>
+      </c>
+      <c r="O13">
+        <v>-0.15629099736</v>
+      </c>
+      <c r="P13">
+        <v>-0.4949214916400001</v>
+      </c>
+      <c r="Q13">
+        <v>-0.4639214916400001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.08337577752122649</v>
+      </c>
+      <c r="T13">
+        <v>1.259351369046312</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.07447476158091783</v>
+      </c>
+      <c r="W13">
+        <v>0.1700189862975854</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.3103115065871576</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.09465053048662599</v>
+      </c>
+      <c r="C14">
+        <v>33.83611410483089</v>
+      </c>
+      <c r="D14">
+        <v>25.64335410483088</v>
+      </c>
+      <c r="E14">
+        <v>5.58024</v>
+      </c>
+      <c r="F14">
+        <v>5.60724</v>
+      </c>
+      <c r="G14">
+        <v>13.8</v>
+      </c>
+      <c r="H14">
+        <v>46.7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.324</v>
+      </c>
+      <c r="K14">
+        <v>0.031</v>
+      </c>
+      <c r="L14">
+        <v>0.293</v>
+      </c>
+      <c r="M14">
+        <v>1.030049988</v>
+      </c>
+      <c r="N14">
+        <v>-0.737049988</v>
+      </c>
+      <c r="O14">
+        <v>-0.17689199712</v>
+      </c>
+      <c r="P14">
+        <v>-0.5601579908800001</v>
+      </c>
+      <c r="Q14">
+        <v>-0.52915799088</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.08421754772033135</v>
+      </c>
+      <c r="T14">
+        <v>1.273662180058202</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.06826853144917469</v>
+      </c>
+      <c r="W14">
+        <v>0.1711590707727866</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.2844522143715612</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.09639453048662598</v>
+      </c>
+      <c r="C15">
+        <v>32.85535595225748</v>
+      </c>
+      <c r="D15">
+        <v>25.12986595225749</v>
+      </c>
+      <c r="E15">
+        <v>6.047510000000001</v>
+      </c>
+      <c r="F15">
+        <v>6.074510000000001</v>
+      </c>
+      <c r="G15">
+        <v>13.8</v>
+      </c>
+      <c r="H15">
+        <v>46.7</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.324</v>
+      </c>
+      <c r="K15">
+        <v>0.031</v>
+      </c>
+      <c r="L15">
+        <v>0.293</v>
+      </c>
+      <c r="M15">
+        <v>1.115887487</v>
+      </c>
+      <c r="N15">
+        <v>-0.8228874870000001</v>
+      </c>
+      <c r="O15">
+        <v>-0.19749299688</v>
+      </c>
+      <c r="P15">
+        <v>-0.6253944901200001</v>
+      </c>
+      <c r="Q15">
+        <v>-0.5943944901200001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.08507866895849607</v>
+      </c>
+      <c r="T15">
+        <v>1.288301975231285</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.06301710595308431</v>
+      </c>
+      <c r="W15">
+        <v>0.1721237576364184</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.262571274804518</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.09813853048662596</v>
+      </c>
+      <c r="C16">
+        <v>31.89475849647146</v>
+      </c>
+      <c r="D16">
+        <v>24.63653849647146</v>
+      </c>
+      <c r="E16">
+        <v>6.514780000000001</v>
+      </c>
+      <c r="F16">
+        <v>6.541780000000001</v>
+      </c>
+      <c r="G16">
+        <v>13.8</v>
+      </c>
+      <c r="H16">
+        <v>46.7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.324</v>
+      </c>
+      <c r="K16">
+        <v>0.031</v>
+      </c>
+      <c r="L16">
+        <v>0.293</v>
+      </c>
+      <c r="M16">
+        <v>1.201724986</v>
+      </c>
+      <c r="N16">
+        <v>-0.9087249860000001</v>
+      </c>
+      <c r="O16">
+        <v>-0.21809399664</v>
+      </c>
+      <c r="P16">
+        <v>-0.69063098936</v>
+      </c>
+      <c r="Q16">
+        <v>-0.65963098936</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08595981627196694</v>
+      </c>
+      <c r="T16">
+        <v>1.30328223075723</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.05851588409929259</v>
+      </c>
+      <c r="W16">
+        <v>0.17295063209096</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.2438161837470524</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.09988253048662599</v>
+      </c>
+      <c r="C17">
+        <v>30.95315726607831</v>
+      </c>
+      <c r="D17">
+        <v>24.1622072660783</v>
+      </c>
+      <c r="E17">
+        <v>6.98205</v>
+      </c>
+      <c r="F17">
+        <v>7.00905</v>
+      </c>
+      <c r="G17">
+        <v>13.8</v>
+      </c>
+      <c r="H17">
+        <v>46.7</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.324</v>
+      </c>
+      <c r="K17">
+        <v>0.031</v>
+      </c>
+      <c r="L17">
+        <v>0.293</v>
+      </c>
+      <c r="M17">
+        <v>1.287562485</v>
+      </c>
+      <c r="N17">
+        <v>-0.994562485</v>
+      </c>
+      <c r="O17">
+        <v>-0.2386949964</v>
+      </c>
+      <c r="P17">
+        <v>-0.7558674886</v>
+      </c>
+      <c r="Q17">
+        <v>-0.7248674885999999</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08686169646340187</v>
+      </c>
+      <c r="T17">
+        <v>1.318614962883786</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.05461482515933975</v>
+      </c>
+      <c r="W17">
+        <v>0.1736672566182293</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.227561771497249</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.101626530486626</v>
+      </c>
+      <c r="C18">
+        <v>30.0294757747124</v>
+      </c>
+      <c r="D18">
+        <v>23.7057957747124</v>
+      </c>
+      <c r="E18">
+        <v>7.449320000000001</v>
+      </c>
+      <c r="F18">
+        <v>7.476320000000001</v>
+      </c>
+      <c r="G18">
+        <v>13.8</v>
+      </c>
+      <c r="H18">
+        <v>46.7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.324</v>
+      </c>
+      <c r="K18">
+        <v>0.031</v>
+      </c>
+      <c r="L18">
+        <v>0.293</v>
+      </c>
+      <c r="M18">
+        <v>1.373399984</v>
+      </c>
+      <c r="N18">
+        <v>-1.080399984</v>
+      </c>
+      <c r="O18">
+        <v>-0.25929599616</v>
+      </c>
+      <c r="P18">
+        <v>-0.82110398784</v>
+      </c>
+      <c r="Q18">
+        <v>-0.79010398784</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.08778504999272807</v>
+      </c>
+      <c r="T18">
+        <v>1.334312760060973</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.05120139858688101</v>
+      </c>
+      <c r="W18">
+        <v>0.17429430307959</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.213339160778671</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.103370530486626</v>
+      </c>
+      <c r="C19">
+        <v>29.12271736514107</v>
+      </c>
+      <c r="D19">
+        <v>23.26630736514107</v>
+      </c>
+      <c r="E19">
+        <v>7.916590000000001</v>
+      </c>
+      <c r="F19">
+        <v>7.943590000000001</v>
+      </c>
+      <c r="G19">
+        <v>13.8</v>
+      </c>
+      <c r="H19">
+        <v>46.7</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.324</v>
+      </c>
+      <c r="K19">
+        <v>0.031</v>
+      </c>
+      <c r="L19">
+        <v>0.293</v>
+      </c>
+      <c r="M19">
+        <v>1.459237483</v>
+      </c>
+      <c r="N19">
+        <v>-1.166237483</v>
+      </c>
+      <c r="O19">
+        <v>-0.2798969959200001</v>
+      </c>
+      <c r="P19">
+        <v>-0.8863404870800001</v>
+      </c>
+      <c r="Q19">
+        <v>-0.8553404870800001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08873065300468866</v>
+      </c>
+      <c r="T19">
+        <v>1.350388817411106</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.04818955161118212</v>
+      </c>
+      <c r="W19">
+        <v>0.1748475793690258</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.2007897983799256</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.105114530486626</v>
+      </c>
+      <c r="C20">
+        <v>28.23195794408223</v>
+      </c>
+      <c r="D20">
+        <v>22.84281794408223</v>
+      </c>
+      <c r="E20">
+        <v>8.38386</v>
+      </c>
+      <c r="F20">
+        <v>8.41086</v>
+      </c>
+      <c r="G20">
+        <v>13.8</v>
+      </c>
+      <c r="H20">
+        <v>46.7</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.324</v>
+      </c>
+      <c r="K20">
+        <v>0.031</v>
+      </c>
+      <c r="L20">
+        <v>0.293</v>
+      </c>
+      <c r="M20">
+        <v>1.545074982</v>
+      </c>
+      <c r="N20">
+        <v>-1.252074982</v>
+      </c>
+      <c r="O20">
+        <v>-0.30049799568</v>
+      </c>
+      <c r="P20">
+        <v>-0.9515769863199999</v>
+      </c>
+      <c r="Q20">
+        <v>-0.9205769863199998</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08969931950474584</v>
+      </c>
+      <c r="T20">
+        <v>1.366856973720997</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.04551235429944979</v>
+      </c>
+      <c r="W20">
+        <v>0.1753393805151911</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.1896348095810408</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.106858530486626</v>
+      </c>
+      <c r="C21">
+        <v>27.35633949627591</v>
+      </c>
+      <c r="D21">
+        <v>22.43446949627591</v>
+      </c>
+      <c r="E21">
+        <v>8.851130000000001</v>
+      </c>
+      <c r="F21">
+        <v>8.878130000000001</v>
+      </c>
+      <c r="G21">
+        <v>13.8</v>
+      </c>
+      <c r="H21">
+        <v>46.7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.324</v>
+      </c>
+      <c r="K21">
+        <v>0.031</v>
+      </c>
+      <c r="L21">
+        <v>0.293</v>
+      </c>
+      <c r="M21">
+        <v>1.630912481</v>
+      </c>
+      <c r="N21">
+        <v>-1.337912481</v>
+      </c>
+      <c r="O21">
+        <v>-0.32109899544</v>
+      </c>
+      <c r="P21">
+        <v>-1.01681348556</v>
+      </c>
+      <c r="Q21">
+        <v>-0.9858134855600001</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.09069190369616245</v>
+      </c>
+      <c r="T21">
+        <v>1.383731751174343</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.04311696723105769</v>
+      </c>
+      <c r="W21">
+        <v>0.1757794131196547</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1796540301294072</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.108602530486626</v>
+      </c>
+      <c r="C22">
+        <v>26.49506428201024</v>
+      </c>
+      <c r="D22">
+        <v>22.04046428201025</v>
+      </c>
+      <c r="E22">
+        <v>9.318400000000002</v>
+      </c>
+      <c r="F22">
+        <v>9.345400000000001</v>
+      </c>
+      <c r="G22">
+        <v>13.8</v>
+      </c>
+      <c r="H22">
+        <v>46.7</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.324</v>
+      </c>
+      <c r="K22">
+        <v>0.031</v>
+      </c>
+      <c r="L22">
+        <v>0.293</v>
+      </c>
+      <c r="M22">
+        <v>1.71674998</v>
+      </c>
+      <c r="N22">
+        <v>-1.42374998</v>
+      </c>
+      <c r="O22">
+        <v>-0.3416999952000001</v>
+      </c>
+      <c r="P22">
+        <v>-1.0820499848</v>
+      </c>
+      <c r="Q22">
+        <v>-1.0510499848</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.09170930249236449</v>
+      </c>
+      <c r="T22">
+        <v>1.401028398064022</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.04096111886950481</v>
+      </c>
+      <c r="W22">
+        <v>0.176175442463672</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1706713286229368</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.110346530486626</v>
+      </c>
+      <c r="C23">
+        <v>25.64738963552996</v>
+      </c>
+      <c r="D23">
+        <v>21.66005963552996</v>
+      </c>
+      <c r="E23">
+        <v>9.785670000000001</v>
+      </c>
+      <c r="F23">
+        <v>9.812670000000001</v>
+      </c>
+      <c r="G23">
+        <v>13.8</v>
+      </c>
+      <c r="H23">
+        <v>46.7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.324</v>
+      </c>
+      <c r="K23">
+        <v>0.031</v>
+      </c>
+      <c r="L23">
+        <v>0.293</v>
+      </c>
+      <c r="M23">
+        <v>1.802587479</v>
+      </c>
+      <c r="N23">
+        <v>-1.509587479</v>
+      </c>
+      <c r="O23">
+        <v>-0.36230099496</v>
+      </c>
+      <c r="P23">
+        <v>-1.14728648404</v>
+      </c>
+      <c r="Q23">
+        <v>-1.11628648404</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.09275245822011592</v>
+      </c>
+      <c r="T23">
+        <v>1.418762934748377</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.03901058939952839</v>
+      </c>
+      <c r="W23">
+        <v>0.1765337547273066</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1625441224980351</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.112090530486626</v>
+      </c>
+      <c r="C24">
+        <v>24.81262329296288</v>
+      </c>
+      <c r="D24">
+        <v>21.29256329296288</v>
+      </c>
+      <c r="E24">
+        <v>10.25294</v>
+      </c>
+      <c r="F24">
+        <v>10.27994</v>
+      </c>
+      <c r="G24">
+        <v>13.8</v>
+      </c>
+      <c r="H24">
+        <v>46.7</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.324</v>
+      </c>
+      <c r="K24">
+        <v>0.031</v>
+      </c>
+      <c r="L24">
+        <v>0.293</v>
+      </c>
+      <c r="M24">
+        <v>1.888424978</v>
+      </c>
+      <c r="N24">
+        <v>-1.595424978</v>
+      </c>
+      <c r="O24">
+        <v>-0.3829019947200001</v>
+      </c>
+      <c r="P24">
+        <v>-1.21252298328</v>
+      </c>
+      <c r="Q24">
+        <v>-1.18152298328</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.09382236153063024</v>
+      </c>
+      <c r="T24">
+        <v>1.436952203142587</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.03723738079045891</v>
+      </c>
+      <c r="W24">
+        <v>0.1768594931487927</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1551557532935788</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.113834530486626</v>
+      </c>
+      <c r="C25">
+        <v>23.99011918792542</v>
+      </c>
+      <c r="D25">
+        <v>20.93732918792542</v>
+      </c>
+      <c r="E25">
+        <v>10.72021</v>
+      </c>
+      <c r="F25">
+        <v>10.74721</v>
+      </c>
+      <c r="G25">
+        <v>13.8</v>
+      </c>
+      <c r="H25">
+        <v>46.7</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.324</v>
+      </c>
+      <c r="K25">
+        <v>0.031</v>
+      </c>
+      <c r="L25">
+        <v>0.293</v>
+      </c>
+      <c r="M25">
+        <v>1.974262477</v>
+      </c>
+      <c r="N25">
+        <v>-1.681262477</v>
+      </c>
+      <c r="O25">
+        <v>-0.40350299448</v>
+      </c>
+      <c r="P25">
+        <v>-1.27775948252</v>
+      </c>
+      <c r="Q25">
+        <v>-1.24675948252</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.09492005453752153</v>
+      </c>
+      <c r="T25">
+        <v>1.455613920066517</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.035618364234352</v>
+      </c>
+      <c r="W25">
+        <v>0.1771569064901495</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.1484098509764666</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.115578530486626</v>
+      </c>
+      <c r="C26">
+        <v>23.17927366108525</v>
+      </c>
+      <c r="D26">
+        <v>20.59375366108525</v>
+      </c>
+      <c r="E26">
+        <v>11.18748</v>
+      </c>
+      <c r="F26">
+        <v>11.21448</v>
+      </c>
+      <c r="G26">
+        <v>13.8</v>
+      </c>
+      <c r="H26">
+        <v>46.7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.324</v>
+      </c>
+      <c r="K26">
+        <v>0.031</v>
+      </c>
+      <c r="L26">
+        <v>0.293</v>
+      </c>
+      <c r="M26">
+        <v>2.060099976</v>
+      </c>
+      <c r="N26">
+        <v>-1.767099976</v>
+      </c>
+      <c r="O26">
+        <v>-0.4241039942399999</v>
+      </c>
+      <c r="P26">
+        <v>-1.34299598176</v>
+      </c>
+      <c r="Q26">
+        <v>-1.31199598176</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.09604663420248892</v>
+      </c>
+      <c r="T26">
+        <v>1.474766734804234</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.03413426572458735</v>
+      </c>
+      <c r="W26">
+        <v>0.1774295353863933</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.1422261071857807</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.117322530486626</v>
+      </c>
+      <c r="C27">
+        <v>22.37952203689871</v>
+      </c>
+      <c r="D27">
+        <v>20.26127203689872</v>
+      </c>
+      <c r="E27">
+        <v>11.65475</v>
+      </c>
+      <c r="F27">
+        <v>11.68175</v>
+      </c>
+      <c r="G27">
+        <v>13.8</v>
+      </c>
+      <c r="H27">
+        <v>46.7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.324</v>
+      </c>
+      <c r="K27">
+        <v>0.031</v>
+      </c>
+      <c r="L27">
+        <v>0.293</v>
+      </c>
+      <c r="M27">
+        <v>2.145937475</v>
+      </c>
+      <c r="N27">
+        <v>-1.852937475</v>
+      </c>
+      <c r="O27">
+        <v>-0.444704994</v>
+      </c>
+      <c r="P27">
+        <v>-1.408232481</v>
+      </c>
+      <c r="Q27">
+        <v>-1.377232481</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.09720325599185546</v>
+      </c>
+      <c r="T27">
+        <v>1.494430291268291</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.03276889509560384</v>
+      </c>
+      <c r="W27">
+        <v>0.1776803539709376</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.1365370628983494</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.119066530486626</v>
+      </c>
+      <c r="C28">
+        <v>21.59033552668655</v>
+      </c>
+      <c r="D28">
+        <v>19.93935552668655</v>
+      </c>
+      <c r="E28">
+        <v>12.12202</v>
+      </c>
+      <c r="F28">
+        <v>12.14902</v>
+      </c>
+      <c r="G28">
+        <v>13.8</v>
+      </c>
+      <c r="H28">
+        <v>46.7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.324</v>
+      </c>
+      <c r="K28">
+        <v>0.031</v>
+      </c>
+      <c r="L28">
+        <v>0.293</v>
+      </c>
+      <c r="M28">
+        <v>2.231774974</v>
+      </c>
+      <c r="N28">
+        <v>-1.938774974</v>
+      </c>
+      <c r="O28">
+        <v>-0.46530599376</v>
+      </c>
+      <c r="P28">
+        <v>-1.47346898024</v>
+      </c>
+      <c r="Q28">
+        <v>-1.44246898024</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.09839113782958323</v>
+      </c>
+      <c r="T28">
+        <v>1.514625295204348</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.03150855297654215</v>
+      </c>
+      <c r="W28">
+        <v>0.1779118788182092</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1312856374022591</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.120810530486626</v>
+      </c>
+      <c r="C29">
+        <v>20.81121842232082</v>
+      </c>
+      <c r="D29">
+        <v>19.62750842232082</v>
+      </c>
+      <c r="E29">
+        <v>12.58929</v>
+      </c>
+      <c r="F29">
+        <v>12.61629</v>
+      </c>
+      <c r="G29">
+        <v>13.8</v>
+      </c>
+      <c r="H29">
+        <v>46.7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.324</v>
+      </c>
+      <c r="K29">
+        <v>0.031</v>
+      </c>
+      <c r="L29">
+        <v>0.293</v>
+      </c>
+      <c r="M29">
+        <v>2.317612473</v>
+      </c>
+      <c r="N29">
+        <v>-2.024612473</v>
+      </c>
+      <c r="O29">
+        <v>-0.4859069935199999</v>
+      </c>
+      <c r="P29">
+        <v>-1.53870547948</v>
+      </c>
+      <c r="Q29">
+        <v>-1.50770547948</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09961156437519396</v>
+      </c>
+      <c r="T29">
+        <v>1.535373586919476</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.03034156953296652</v>
+      </c>
+      <c r="W29">
+        <v>0.178126253676794</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1264232063873606</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.122554530486626</v>
+      </c>
+      <c r="C30">
+        <v>20.04170554919735</v>
+      </c>
+      <c r="D30">
+        <v>19.32526554919735</v>
+      </c>
+      <c r="E30">
+        <v>13.05656</v>
+      </c>
+      <c r="F30">
+        <v>13.08356</v>
+      </c>
+      <c r="G30">
+        <v>13.8</v>
+      </c>
+      <c r="H30">
+        <v>46.7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.324</v>
+      </c>
+      <c r="K30">
+        <v>0.031</v>
+      </c>
+      <c r="L30">
+        <v>0.293</v>
+      </c>
+      <c r="M30">
+        <v>2.403449972</v>
+      </c>
+      <c r="N30">
+        <v>-2.110449972</v>
+      </c>
+      <c r="O30">
+        <v>-0.50650799328</v>
+      </c>
+      <c r="P30">
+        <v>-1.60394197872</v>
+      </c>
+      <c r="Q30">
+        <v>-1.57294197872</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1008658916581828</v>
+      </c>
+      <c r="T30">
+        <v>1.556698220071136</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.02925794204964629</v>
+      </c>
+      <c r="W30">
+        <v>0.17832531604548</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1219080918735262</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.124298530486626</v>
+      </c>
+      <c r="C31">
+        <v>19.28135995096856</v>
+      </c>
+      <c r="D31">
+        <v>19.03218995096856</v>
+      </c>
+      <c r="E31">
+        <v>13.52383</v>
+      </c>
+      <c r="F31">
+        <v>13.55083</v>
+      </c>
+      <c r="G31">
+        <v>13.8</v>
+      </c>
+      <c r="H31">
+        <v>46.7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.324</v>
+      </c>
+      <c r="K31">
+        <v>0.031</v>
+      </c>
+      <c r="L31">
+        <v>0.293</v>
+      </c>
+      <c r="M31">
+        <v>2.489287471</v>
+      </c>
+      <c r="N31">
+        <v>-2.196287471</v>
+      </c>
+      <c r="O31">
+        <v>-0.5271089930399999</v>
+      </c>
+      <c r="P31">
+        <v>-1.66917847796</v>
+      </c>
+      <c r="Q31">
+        <v>-1.63817847796</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1021555521040726</v>
+      </c>
+      <c r="T31">
+        <v>1.578623547114391</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.02824904749621022</v>
+      </c>
+      <c r="W31">
+        <v>0.1785106499749462</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1177043645675426</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.126042530486626</v>
+      </c>
+      <c r="C32">
+        <v>18.52977078180088</v>
+      </c>
+      <c r="D32">
+        <v>18.74787078180088</v>
+      </c>
+      <c r="E32">
+        <v>13.9911</v>
+      </c>
+      <c r="F32">
+        <v>14.0181</v>
+      </c>
+      <c r="G32">
+        <v>13.8</v>
+      </c>
+      <c r="H32">
+        <v>46.7</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.324</v>
+      </c>
+      <c r="K32">
+        <v>0.031</v>
+      </c>
+      <c r="L32">
+        <v>0.293</v>
+      </c>
+      <c r="M32">
+        <v>2.57512497</v>
+      </c>
+      <c r="N32">
+        <v>-2.28212497</v>
+      </c>
+      <c r="O32">
+        <v>-0.5477099928</v>
+      </c>
+      <c r="P32">
+        <v>-1.7344149772</v>
+      </c>
+      <c r="Q32">
+        <v>-1.7034149772</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1034820599912737</v>
+      </c>
+      <c r="T32">
+        <v>1.601175312073168</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.02730741257966987</v>
+      </c>
+      <c r="W32">
+        <v>0.1786836283091147</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1137808857486245</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.127786530486626</v>
+      </c>
+      <c r="C33">
+        <v>17.78655138477511</v>
+      </c>
+      <c r="D33">
+        <v>18.47192138477511</v>
+      </c>
+      <c r="E33">
+        <v>14.45837</v>
+      </c>
+      <c r="F33">
+        <v>14.48537</v>
+      </c>
+      <c r="G33">
+        <v>13.8</v>
+      </c>
+      <c r="H33">
+        <v>46.7</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.324</v>
+      </c>
+      <c r="K33">
+        <v>0.031</v>
+      </c>
+      <c r="L33">
+        <v>0.293</v>
+      </c>
+      <c r="M33">
+        <v>2.660962469</v>
+      </c>
+      <c r="N33">
+        <v>-2.367962469</v>
+      </c>
+      <c r="O33">
+        <v>-0.56831099256</v>
+      </c>
+      <c r="P33">
+        <v>-1.79965147644</v>
+      </c>
+      <c r="Q33">
+        <v>-1.76865147644</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1048470173824516</v>
+      </c>
+      <c r="T33">
+        <v>1.624380751378577</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.02642652830290633</v>
+      </c>
+      <c r="W33">
+        <v>0.1788454467507561</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1101105345954431</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.129530530486626</v>
+      </c>
+      <c r="C34">
+        <v>17.05133753752882</v>
+      </c>
+      <c r="D34">
+        <v>18.20397753752883</v>
+      </c>
+      <c r="E34">
+        <v>14.92564</v>
+      </c>
+      <c r="F34">
+        <v>14.95264</v>
+      </c>
+      <c r="G34">
+        <v>13.8</v>
+      </c>
+      <c r="H34">
+        <v>46.7</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.324</v>
+      </c>
+      <c r="K34">
+        <v>0.031</v>
+      </c>
+      <c r="L34">
+        <v>0.293</v>
+      </c>
+      <c r="M34">
+        <v>2.746799968</v>
+      </c>
+      <c r="N34">
+        <v>-2.453799968</v>
+      </c>
+      <c r="O34">
+        <v>-0.58891199232</v>
+      </c>
+      <c r="P34">
+        <v>-1.86488797568</v>
+      </c>
+      <c r="Q34">
+        <v>-1.83388797568</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1062521205792523</v>
+      </c>
+      <c r="T34">
+        <v>1.648268703604732</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.02560069929344051</v>
+      </c>
+      <c r="W34">
+        <v>0.178997151539795</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1066695803893355</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.131274530486626</v>
+      </c>
+      <c r="C35">
+        <v>16.3237858484025</v>
+      </c>
+      <c r="D35">
+        <v>17.9436958484025</v>
+      </c>
+      <c r="E35">
+        <v>15.39291</v>
+      </c>
+      <c r="F35">
+        <v>15.41991</v>
+      </c>
+      <c r="G35">
+        <v>13.8</v>
+      </c>
+      <c r="H35">
+        <v>46.7</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.324</v>
+      </c>
+      <c r="K35">
+        <v>0.031</v>
+      </c>
+      <c r="L35">
+        <v>0.293</v>
+      </c>
+      <c r="M35">
+        <v>2.832637467000001</v>
+      </c>
+      <c r="N35">
+        <v>-2.539637467</v>
+      </c>
+      <c r="O35">
+        <v>-0.6095129920800001</v>
+      </c>
+      <c r="P35">
+        <v>-1.93012447492</v>
+      </c>
+      <c r="Q35">
+        <v>-1.89912447492</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1076991671550621</v>
+      </c>
+      <c r="T35">
+        <v>1.672869729031669</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.02482492052697261</v>
+      </c>
+      <c r="W35">
+        <v>0.1791396620991951</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.103437168862386</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.133018530486626</v>
+      </c>
+      <c r="C36">
+        <v>15.60357228823794</v>
+      </c>
+      <c r="D36">
+        <v>17.69075228823794</v>
+      </c>
+      <c r="E36">
+        <v>15.86018</v>
+      </c>
+      <c r="F36">
+        <v>15.88718</v>
+      </c>
+      <c r="G36">
+        <v>13.8</v>
+      </c>
+      <c r="H36">
+        <v>46.7</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.324</v>
+      </c>
+      <c r="K36">
+        <v>0.031</v>
+      </c>
+      <c r="L36">
+        <v>0.293</v>
+      </c>
+      <c r="M36">
+        <v>2.918474966000001</v>
+      </c>
+      <c r="N36">
+        <v>-2.625474966000001</v>
+      </c>
+      <c r="O36">
+        <v>-0.6301139918400001</v>
+      </c>
+      <c r="P36">
+        <v>-1.99536097416</v>
+      </c>
+      <c r="Q36">
+        <v>-1.964360974160001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1091900636271085</v>
+      </c>
+      <c r="T36">
+        <v>1.698216240077603</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.02409477580559106</v>
+      </c>
+      <c r="W36">
+        <v>0.1792737896845129</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1003948991899628</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.134762530486626</v>
+      </c>
+      <c r="C37">
+        <v>14.89039084462987</v>
+      </c>
+      <c r="D37">
+        <v>17.44484084462988</v>
+      </c>
+      <c r="E37">
+        <v>16.32745</v>
+      </c>
+      <c r="F37">
+        <v>16.35445</v>
+      </c>
+      <c r="G37">
+        <v>13.8</v>
+      </c>
+      <c r="H37">
+        <v>46.7</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.324</v>
+      </c>
+      <c r="K37">
+        <v>0.031</v>
+      </c>
+      <c r="L37">
+        <v>0.293</v>
+      </c>
+      <c r="M37">
+        <v>3.004312465000001</v>
+      </c>
+      <c r="N37">
+        <v>-2.711312465000001</v>
+      </c>
+      <c r="O37">
+        <v>-0.6507149916000001</v>
+      </c>
+      <c r="P37">
+        <v>-2.060597473400001</v>
+      </c>
+      <c r="Q37">
+        <v>-2.0295974734</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1107268338367563</v>
+      </c>
+      <c r="T37">
+        <v>1.724342643771104</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.02340635363971703</v>
+      </c>
+      <c r="W37">
+        <v>0.179400252836384</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.09752647349882104</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.136506530486626</v>
+      </c>
+      <c r="C38">
+        <v>14.18395228687857</v>
+      </c>
+      <c r="D38">
+        <v>17.20567228687857</v>
+      </c>
+      <c r="E38">
+        <v>16.79472</v>
+      </c>
+      <c r="F38">
+        <v>16.82172</v>
+      </c>
+      <c r="G38">
+        <v>13.8</v>
+      </c>
+      <c r="H38">
+        <v>46.7</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.324</v>
+      </c>
+      <c r="K38">
+        <v>0.031</v>
+      </c>
+      <c r="L38">
+        <v>0.293</v>
+      </c>
+      <c r="M38">
+        <v>3.090149964</v>
+      </c>
+      <c r="N38">
+        <v>-2.797149964</v>
+      </c>
+      <c r="O38">
+        <v>-0.67131599136</v>
+      </c>
+      <c r="P38">
+        <v>-2.12583397264</v>
+      </c>
+      <c r="Q38">
+        <v>-2.09483397264</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1123116281154556</v>
+      </c>
+      <c r="T38">
+        <v>1.751285497580028</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.02275617714972489</v>
+      </c>
+      <c r="W38">
+        <v>0.1795196902575955</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.09481740479052048</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.138250530486626</v>
+      </c>
+      <c r="C39">
+        <v>13.48398303116338</v>
+      </c>
+      <c r="D39">
+        <v>16.97297303116338</v>
+      </c>
+      <c r="E39">
+        <v>17.26199</v>
+      </c>
+      <c r="F39">
+        <v>17.28899</v>
+      </c>
+      <c r="G39">
+        <v>13.8</v>
+      </c>
+      <c r="H39">
+        <v>46.7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.324</v>
+      </c>
+      <c r="K39">
+        <v>0.031</v>
+      </c>
+      <c r="L39">
+        <v>0.293</v>
+      </c>
+      <c r="M39">
+        <v>3.175987463</v>
+      </c>
+      <c r="N39">
+        <v>-2.882987463</v>
+      </c>
+      <c r="O39">
+        <v>-0.69191699112</v>
+      </c>
+      <c r="P39">
+        <v>-2.19107047188</v>
+      </c>
+      <c r="Q39">
+        <v>-2.16007047188</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1139467333236374</v>
+      </c>
+      <c r="T39">
+        <v>1.779083680081298</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.02214114533486746</v>
+      </c>
+      <c r="W39">
+        <v>0.1796326716019848</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.09225477222861445</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.139994530486626</v>
+      </c>
+      <c r="C40">
+        <v>12.79022409657573</v>
+      </c>
+      <c r="D40">
+        <v>16.74648409657573</v>
+      </c>
+      <c r="E40">
+        <v>17.72926</v>
+      </c>
+      <c r="F40">
+        <v>17.75626</v>
+      </c>
+      <c r="G40">
+        <v>13.8</v>
+      </c>
+      <c r="H40">
+        <v>46.7</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.324</v>
+      </c>
+      <c r="K40">
+        <v>0.031</v>
+      </c>
+      <c r="L40">
+        <v>0.293</v>
+      </c>
+      <c r="M40">
+        <v>3.261824962</v>
+      </c>
+      <c r="N40">
+        <v>-2.968824962</v>
+      </c>
+      <c r="O40">
+        <v>-0.71251799088</v>
+      </c>
+      <c r="P40">
+        <v>-2.25630697112</v>
+      </c>
+      <c r="Q40">
+        <v>-2.22530697112</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1156345838611155</v>
+      </c>
+      <c r="T40">
+        <v>1.807778578147125</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.02155848361552885</v>
+      </c>
+      <c r="W40">
+        <v>0.1797397065598274</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.08982701506470359</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.141738530486626</v>
+      </c>
+      <c r="C41">
+        <v>12.10243014363608</v>
+      </c>
+      <c r="D41">
+        <v>16.52596014363608</v>
+      </c>
+      <c r="E41">
+        <v>18.19653</v>
+      </c>
+      <c r="F41">
+        <v>18.22353</v>
+      </c>
+      <c r="G41">
+        <v>13.8</v>
+      </c>
+      <c r="H41">
+        <v>46.7</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.324</v>
+      </c>
+      <c r="K41">
+        <v>0.031</v>
+      </c>
+      <c r="L41">
+        <v>0.293</v>
+      </c>
+      <c r="M41">
+        <v>3.347662461000001</v>
+      </c>
+      <c r="N41">
+        <v>-3.054662461</v>
+      </c>
+      <c r="O41">
+        <v>-0.7331189906400001</v>
+      </c>
+      <c r="P41">
+        <v>-2.32154347036</v>
+      </c>
+      <c r="Q41">
+        <v>-2.29054347036</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.117377773760478</v>
+      </c>
+      <c r="T41">
+        <v>1.83741429254298</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.02100570198436144</v>
+      </c>
+      <c r="W41">
+        <v>0.1798412525454728</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.08752375826817271</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.143482530486626</v>
+      </c>
+      <c r="C42">
+        <v>11.42036858779064</v>
+      </c>
+      <c r="D42">
+        <v>16.31116858779064</v>
+      </c>
+      <c r="E42">
+        <v>18.6638</v>
+      </c>
+      <c r="F42">
+        <v>18.6908</v>
+      </c>
+      <c r="G42">
+        <v>13.8</v>
+      </c>
+      <c r="H42">
+        <v>46.7</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.324</v>
+      </c>
+      <c r="K42">
+        <v>0.031</v>
+      </c>
+      <c r="L42">
+        <v>0.293</v>
+      </c>
+      <c r="M42">
+        <v>3.433499960000001</v>
+      </c>
+      <c r="N42">
+        <v>-3.140499960000001</v>
+      </c>
+      <c r="O42">
+        <v>-0.7537199904000002</v>
+      </c>
+      <c r="P42">
+        <v>-2.3867799696</v>
+      </c>
+      <c r="Q42">
+        <v>-2.3557799696</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1191790699898193</v>
+      </c>
+      <c r="T42">
+        <v>1.868037864085363</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.0204805594347524</v>
+      </c>
+      <c r="W42">
+        <v>0.179937721231836</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.08533566431146833</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.145226530486626</v>
+      </c>
+      <c r="C43">
+        <v>10.74381878115344</v>
+      </c>
+      <c r="D43">
+        <v>16.10188878115344</v>
+      </c>
+      <c r="E43">
+        <v>19.13107</v>
+      </c>
+      <c r="F43">
+        <v>19.15807</v>
+      </c>
+      <c r="G43">
+        <v>13.8</v>
+      </c>
+      <c r="H43">
+        <v>46.7</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.324</v>
+      </c>
+      <c r="K43">
+        <v>0.031</v>
+      </c>
+      <c r="L43">
+        <v>0.293</v>
+      </c>
+      <c r="M43">
+        <v>3.519337459</v>
+      </c>
+      <c r="N43">
+        <v>-3.226337459</v>
+      </c>
+      <c r="O43">
+        <v>-0.77432099016</v>
+      </c>
+      <c r="P43">
+        <v>-2.45201646884</v>
+      </c>
+      <c r="Q43">
+        <v>-2.42101646884</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1210414271082908</v>
+      </c>
+      <c r="T43">
+        <v>1.899699522798674</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.01998103359488039</v>
+      </c>
+      <c r="W43">
+        <v>0.1800294841286205</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.08325430664533495</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.146970530486626</v>
+      </c>
+      <c r="C44">
+        <v>10.07257125644229</v>
+      </c>
+      <c r="D44">
+        <v>15.8979112564423</v>
+      </c>
+      <c r="E44">
+        <v>19.59834</v>
+      </c>
+      <c r="F44">
+        <v>19.62534</v>
+      </c>
+      <c r="G44">
+        <v>13.8</v>
+      </c>
+      <c r="H44">
+        <v>46.7</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.324</v>
+      </c>
+      <c r="K44">
+        <v>0.031</v>
+      </c>
+      <c r="L44">
+        <v>0.293</v>
+      </c>
+      <c r="M44">
+        <v>3.605174958</v>
+      </c>
+      <c r="N44">
+        <v>-3.312174958</v>
+      </c>
+      <c r="O44">
+        <v>-0.79492198992</v>
+      </c>
+      <c r="P44">
+        <v>-2.51725296808</v>
+      </c>
+      <c r="Q44">
+        <v>-2.48625296808</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1229680034377441</v>
+      </c>
+      <c r="T44">
+        <v>1.932452962846927</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.01950529469976419</v>
+      </c>
+      <c r="W44">
+        <v>0.1801168773636533</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.08127206124901754</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.148714530486626</v>
+      </c>
+      <c r="C45">
+        <v>9.406427027662431</v>
+      </c>
+      <c r="D45">
+        <v>15.69903702766243</v>
+      </c>
+      <c r="E45">
+        <v>20.06561</v>
+      </c>
+      <c r="F45">
+        <v>20.09261</v>
+      </c>
+      <c r="G45">
+        <v>13.8</v>
+      </c>
+      <c r="H45">
+        <v>46.7</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.324</v>
+      </c>
+      <c r="K45">
+        <v>0.031</v>
+      </c>
+      <c r="L45">
+        <v>0.293</v>
+      </c>
+      <c r="M45">
+        <v>3.691012457</v>
+      </c>
+      <c r="N45">
+        <v>-3.398012457</v>
+      </c>
+      <c r="O45">
+        <v>-0.81552298968</v>
+      </c>
+      <c r="P45">
+        <v>-2.58248946732</v>
+      </c>
+      <c r="Q45">
+        <v>-2.55148946732</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1249621789366519</v>
+      </c>
+      <c r="T45">
+        <v>1.966355646405645</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.01905168319511851</v>
+      </c>
+      <c r="W45">
+        <v>0.1802002057970567</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.07938201331299388</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.150458530486626</v>
+      </c>
+      <c r="C46">
+        <v>8.745196942629963</v>
+      </c>
+      <c r="D46">
+        <v>15.50507694262997</v>
+      </c>
+      <c r="E46">
+        <v>20.53288</v>
+      </c>
+      <c r="F46">
+        <v>20.55988</v>
+      </c>
+      <c r="G46">
+        <v>13.8</v>
+      </c>
+      <c r="H46">
+        <v>46.7</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.324</v>
+      </c>
+      <c r="K46">
+        <v>0.031</v>
+      </c>
+      <c r="L46">
+        <v>0.293</v>
+      </c>
+      <c r="M46">
+        <v>3.776849956000001</v>
+      </c>
+      <c r="N46">
+        <v>-3.483849956000001</v>
+      </c>
+      <c r="O46">
+        <v>-0.8361239894400001</v>
+      </c>
+      <c r="P46">
+        <v>-2.64772596656</v>
+      </c>
+      <c r="Q46">
+        <v>-2.61672596656</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1270275749890921</v>
+      </c>
+      <c r="T46">
+        <v>2.00146914009146</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.01861869039522946</v>
+      </c>
+      <c r="W46">
+        <v>0.1802797465743964</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.07757787664678939</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.152202530486626</v>
+      </c>
+      <c r="C47">
+        <v>8.088701082906805</v>
+      </c>
+      <c r="D47">
+        <v>15.31585108290681</v>
+      </c>
+      <c r="E47">
+        <v>21.00015</v>
+      </c>
+      <c r="F47">
+        <v>21.02715</v>
+      </c>
+      <c r="G47">
+        <v>13.8</v>
+      </c>
+      <c r="H47">
+        <v>46.7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.324</v>
+      </c>
+      <c r="K47">
+        <v>0.031</v>
+      </c>
+      <c r="L47">
+        <v>0.293</v>
+      </c>
+      <c r="M47">
+        <v>3.862687455000001</v>
+      </c>
+      <c r="N47">
+        <v>-3.569687455</v>
+      </c>
+      <c r="O47">
+        <v>-0.8567249892000001</v>
+      </c>
+      <c r="P47">
+        <v>-2.7129624658</v>
+      </c>
+      <c r="Q47">
+        <v>-2.6819624658</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1291680763525302</v>
+      </c>
+      <c r="T47">
+        <v>2.037859488093123</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.01820494171977991</v>
+      </c>
+      <c r="W47">
+        <v>0.1803557522060764</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.07585392383241629</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.153946530486626</v>
+      </c>
+      <c r="C48">
+        <v>7.436768207145271</v>
+      </c>
+      <c r="D48">
+        <v>15.13118820714527</v>
+      </c>
+      <c r="E48">
+        <v>21.46742</v>
+      </c>
+      <c r="F48">
+        <v>21.49442</v>
+      </c>
+      <c r="G48">
+        <v>13.8</v>
+      </c>
+      <c r="H48">
+        <v>46.7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.324</v>
+      </c>
+      <c r="K48">
+        <v>0.031</v>
+      </c>
+      <c r="L48">
+        <v>0.293</v>
+      </c>
+      <c r="M48">
+        <v>3.948524954</v>
+      </c>
+      <c r="N48">
+        <v>-3.655524954</v>
+      </c>
+      <c r="O48">
+        <v>-0.87732598896</v>
+      </c>
+      <c r="P48">
+        <v>-2.77819896504</v>
+      </c>
+      <c r="Q48">
+        <v>-2.74719896504</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1313878555442437</v>
+      </c>
+      <c r="T48">
+        <v>2.075597626761514</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.017809182117176</v>
+      </c>
+      <c r="W48">
+        <v>0.1804284532450748</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.07420492548823343</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.155690530486626</v>
+      </c>
+      <c r="C49">
+        <v>6.789235234222488</v>
+      </c>
+      <c r="D49">
+        <v>14.95092523422249</v>
+      </c>
+      <c r="E49">
+        <v>21.93469</v>
+      </c>
+      <c r="F49">
+        <v>21.96169</v>
+      </c>
+      <c r="G49">
+        <v>13.8</v>
+      </c>
+      <c r="H49">
+        <v>46.7</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.324</v>
+      </c>
+      <c r="K49">
+        <v>0.031</v>
+      </c>
+      <c r="L49">
+        <v>0.293</v>
+      </c>
+      <c r="M49">
+        <v>4.034362453000001</v>
+      </c>
+      <c r="N49">
+        <v>-3.741362453000001</v>
+      </c>
+      <c r="O49">
+        <v>-0.8979269887200001</v>
+      </c>
+      <c r="P49">
+        <v>-2.843435464280001</v>
+      </c>
+      <c r="Q49">
+        <v>-2.81243546428</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1336913999884747</v>
+      </c>
+      <c r="T49">
+        <v>2.114759846134374</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.01743026334872545</v>
+      </c>
+      <c r="W49">
+        <v>0.1804980606228391</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.07262609728635605</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.157434530486626</v>
+      </c>
+      <c r="C50">
+        <v>6.145946762885469</v>
+      </c>
+      <c r="D50">
+        <v>14.77490676288547</v>
+      </c>
+      <c r="E50">
+        <v>22.40196</v>
+      </c>
+      <c r="F50">
+        <v>22.42896</v>
+      </c>
+      <c r="G50">
+        <v>13.8</v>
+      </c>
+      <c r="H50">
+        <v>46.7</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.324</v>
+      </c>
+      <c r="K50">
+        <v>0.031</v>
+      </c>
+      <c r="L50">
+        <v>0.293</v>
+      </c>
+      <c r="M50">
+        <v>4.120199952</v>
+      </c>
+      <c r="N50">
+        <v>-3.827199952</v>
+      </c>
+      <c r="O50">
+        <v>-0.9185279884799999</v>
+      </c>
+      <c r="P50">
+        <v>-2.90867196352</v>
+      </c>
+      <c r="Q50">
+        <v>-2.87767196352</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1360835422959454</v>
+      </c>
+      <c r="T50">
+        <v>2.15542830471388</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.01706713286229367</v>
+      </c>
+      <c r="W50">
+        <v>0.1805647676931967</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.07111305359289033</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.159178530486626</v>
+      </c>
+      <c r="C51">
+        <v>5.506754624932753</v>
+      </c>
+      <c r="D51">
+        <v>14.60298462493275</v>
+      </c>
+      <c r="E51">
+        <v>22.86923</v>
+      </c>
+      <c r="F51">
+        <v>22.89623</v>
+      </c>
+      <c r="G51">
+        <v>13.8</v>
+      </c>
+      <c r="H51">
+        <v>46.7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.324</v>
+      </c>
+      <c r="K51">
+        <v>0.031</v>
+      </c>
+      <c r="L51">
+        <v>0.293</v>
+      </c>
+      <c r="M51">
+        <v>4.206037451</v>
+      </c>
+      <c r="N51">
+        <v>-3.913037451</v>
+      </c>
+      <c r="O51">
+        <v>-0.93912898824</v>
+      </c>
+      <c r="P51">
+        <v>-2.97390846276</v>
+      </c>
+      <c r="Q51">
+        <v>-2.94290846276</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1385694941056698</v>
+      </c>
+      <c r="T51">
+        <v>2.197691604806309</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.01671882402836931</v>
+      </c>
+      <c r="W51">
+        <v>0.1806287520259885</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.06966176678487213</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.160922530486626</v>
+      </c>
+      <c r="C52">
+        <v>4.8715174692327</v>
+      </c>
+      <c r="D52">
+        <v>14.4350174692327</v>
+      </c>
+      <c r="E52">
+        <v>23.3365</v>
+      </c>
+      <c r="F52">
+        <v>23.3635</v>
+      </c>
+      <c r="G52">
+        <v>13.8</v>
+      </c>
+      <c r="H52">
+        <v>46.7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.324</v>
+      </c>
+      <c r="K52">
+        <v>0.031</v>
+      </c>
+      <c r="L52">
+        <v>0.293</v>
+      </c>
+      <c r="M52">
+        <v>4.29187495</v>
+      </c>
+      <c r="N52">
+        <v>-3.99887495</v>
+      </c>
+      <c r="O52">
+        <v>-0.959729988</v>
+      </c>
+      <c r="P52">
+        <v>-3.039144962</v>
+      </c>
+      <c r="Q52">
+        <v>-3.008144962</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1411548839877832</v>
+      </c>
+      <c r="T52">
+        <v>2.241645436902436</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.01638444754780192</v>
+      </c>
+      <c r="W52">
+        <v>0.1806901769854688</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.06826853144917466</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.162666530486626</v>
+      </c>
+      <c r="C53">
+        <v>4.2401003741236</v>
+      </c>
+      <c r="D53">
+        <v>14.2708703741236</v>
+      </c>
+      <c r="E53">
+        <v>23.80377</v>
+      </c>
+      <c r="F53">
+        <v>23.83077</v>
+      </c>
+      <c r="G53">
+        <v>13.8</v>
+      </c>
+      <c r="H53">
+        <v>46.7</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.324</v>
+      </c>
+      <c r="K53">
+        <v>0.031</v>
+      </c>
+      <c r="L53">
+        <v>0.293</v>
+      </c>
+      <c r="M53">
+        <v>4.377712449000001</v>
+      </c>
+      <c r="N53">
+        <v>-4.084712449</v>
+      </c>
+      <c r="O53">
+        <v>-0.98033098776</v>
+      </c>
+      <c r="P53">
+        <v>-3.10438146124</v>
+      </c>
+      <c r="Q53">
+        <v>-3.07338146124</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1438457999875338</v>
+      </c>
+      <c r="T53">
+        <v>2.287393302961669</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.01606318387039404</v>
+      </c>
+      <c r="W53">
+        <v>0.1807491931230086</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.0669299327933085</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.164410530486626</v>
+      </c>
+      <c r="C54">
+        <v>3.612374485961848</v>
+      </c>
+      <c r="D54">
+        <v>14.11041448596185</v>
+      </c>
+      <c r="E54">
+        <v>24.27104</v>
+      </c>
+      <c r="F54">
+        <v>24.29804</v>
+      </c>
+      <c r="G54">
+        <v>13.8</v>
+      </c>
+      <c r="H54">
+        <v>46.7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.324</v>
+      </c>
+      <c r="K54">
+        <v>0.031</v>
+      </c>
+      <c r="L54">
+        <v>0.293</v>
+      </c>
+      <c r="M54">
+        <v>4.463549948000001</v>
+      </c>
+      <c r="N54">
+        <v>-4.170549948000001</v>
+      </c>
+      <c r="O54">
+        <v>-1.00093198752</v>
+      </c>
+      <c r="P54">
+        <v>-3.169617960480001</v>
+      </c>
+      <c r="Q54">
+        <v>-3.13861796048</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1466488374872741</v>
+      </c>
+      <c r="T54">
+        <v>2.335047330106704</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.01575427648827108</v>
+      </c>
+      <c r="W54">
+        <v>0.1808059394091046</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.06564281870112953</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.166154530486626</v>
+      </c>
+      <c r="C55">
+        <v>2.988216681783211</v>
+      </c>
+      <c r="D55">
+        <v>13.95352668178321</v>
+      </c>
+      <c r="E55">
+        <v>24.73831</v>
+      </c>
+      <c r="F55">
+        <v>24.76531</v>
+      </c>
+      <c r="G55">
+        <v>13.8</v>
+      </c>
+      <c r="H55">
+        <v>46.7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.324</v>
+      </c>
+      <c r="K55">
+        <v>0.031</v>
+      </c>
+      <c r="L55">
+        <v>0.293</v>
+      </c>
+      <c r="M55">
+        <v>4.549387447000001</v>
+      </c>
+      <c r="N55">
+        <v>-4.256387447000001</v>
+      </c>
+      <c r="O55">
+        <v>-1.02153298728</v>
+      </c>
+      <c r="P55">
+        <v>-3.234854459720001</v>
+      </c>
+      <c r="Q55">
+        <v>-3.20385445972</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1495711531784928</v>
+      </c>
+      <c r="T55">
+        <v>2.384729188194081</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.01545702598849238</v>
+      </c>
+      <c r="W55">
+        <v>0.1808605443259139</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.06440427495205159</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.167898530486626</v>
+      </c>
+      <c r="C56">
+        <v>2.367509254220902</v>
+      </c>
+      <c r="D56">
+        <v>13.8000892542209</v>
+      </c>
+      <c r="E56">
+        <v>25.20558</v>
+      </c>
+      <c r="F56">
+        <v>25.23258</v>
+      </c>
+      <c r="G56">
+        <v>13.8</v>
+      </c>
+      <c r="H56">
+        <v>46.7</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.324</v>
+      </c>
+      <c r="K56">
+        <v>0.031</v>
+      </c>
+      <c r="L56">
+        <v>0.293</v>
+      </c>
+      <c r="M56">
+        <v>4.635224946</v>
+      </c>
+      <c r="N56">
+        <v>-4.342224946</v>
+      </c>
+      <c r="O56">
+        <v>-1.04213398704</v>
+      </c>
+      <c r="P56">
+        <v>-3.30009095896</v>
+      </c>
+      <c r="Q56">
+        <v>-3.26909095896</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1526205260736774</v>
+      </c>
+      <c r="T56">
+        <v>2.436571127067865</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.01517078476648326</v>
+      </c>
+      <c r="W56">
+        <v>0.180913126838397</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.06321160319368024</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.169642530486626</v>
+      </c>
+      <c r="C57">
+        <v>1.750139616986043</v>
+      </c>
+      <c r="D57">
+        <v>13.64998961698605</v>
+      </c>
+      <c r="E57">
+        <v>25.67285</v>
+      </c>
+      <c r="F57">
+        <v>25.69985</v>
+      </c>
+      <c r="G57">
+        <v>13.8</v>
+      </c>
+      <c r="H57">
+        <v>46.7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.324</v>
+      </c>
+      <c r="K57">
+        <v>0.031</v>
+      </c>
+      <c r="L57">
+        <v>0.293</v>
+      </c>
+      <c r="M57">
+        <v>4.721062445000001</v>
+      </c>
+      <c r="N57">
+        <v>-4.428062445000001</v>
+      </c>
+      <c r="O57">
+        <v>-1.0627349868</v>
+      </c>
+      <c r="P57">
+        <v>-3.365327458200001</v>
+      </c>
+      <c r="Q57">
+        <v>-3.334327458200001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1558054266530925</v>
+      </c>
+      <c r="T57">
+        <v>2.490717152113818</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.01489495231618356</v>
+      </c>
+      <c r="W57">
+        <v>0.1809637972595171</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.06206230131743151</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.171386530486626</v>
+      </c>
+      <c r="C58">
+        <v>1.136000029361753</v>
+      </c>
+      <c r="D58">
+        <v>13.50312002936175</v>
+      </c>
+      <c r="E58">
+        <v>26.14012</v>
+      </c>
+      <c r="F58">
+        <v>26.16712</v>
+      </c>
+      <c r="G58">
+        <v>13.8</v>
+      </c>
+      <c r="H58">
+        <v>46.7</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.324</v>
+      </c>
+      <c r="K58">
+        <v>0.031</v>
+      </c>
+      <c r="L58">
+        <v>0.293</v>
+      </c>
+      <c r="M58">
+        <v>4.806899944</v>
+      </c>
+      <c r="N58">
+        <v>-4.513899944</v>
+      </c>
+      <c r="O58">
+        <v>-1.08333598656</v>
+      </c>
+      <c r="P58">
+        <v>-3.43056395744</v>
+      </c>
+      <c r="Q58">
+        <v>-3.39956395744</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1591350954406627</v>
+      </c>
+      <c r="T58">
+        <v>2.547324360116404</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.01462897102482315</v>
+      </c>
+      <c r="W58">
+        <v>0.18101265802274</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.06095404593676312</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.173130530486626</v>
+      </c>
+      <c r="C59">
+        <v>0.5249873382939896</v>
+      </c>
+      <c r="D59">
+        <v>13.35937733829399</v>
+      </c>
+      <c r="E59">
+        <v>26.60739</v>
+      </c>
+      <c r="F59">
+        <v>26.63439</v>
+      </c>
+      <c r="G59">
+        <v>13.8</v>
+      </c>
+      <c r="H59">
+        <v>46.7</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.324</v>
+      </c>
+      <c r="K59">
+        <v>0.031</v>
+      </c>
+      <c r="L59">
+        <v>0.293</v>
+      </c>
+      <c r="M59">
+        <v>4.892737443000001</v>
+      </c>
+      <c r="N59">
+        <v>-4.599737443</v>
+      </c>
+      <c r="O59">
+        <v>-1.10393698632</v>
+      </c>
+      <c r="P59">
+        <v>-3.495800456680001</v>
+      </c>
+      <c r="Q59">
+        <v>-3.46480045668</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1626196325439339</v>
+      </c>
+      <c r="T59">
+        <v>2.60656446151446</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.01437232241035256</v>
+      </c>
+      <c r="W59">
+        <v>0.1810598043732182</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.05988467670980235</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.174874530486626</v>
+      </c>
+      <c r="C60">
+        <v>-0.0829972632181466</v>
+      </c>
+      <c r="D60">
+        <v>13.21866273678185</v>
+      </c>
+      <c r="E60">
+        <v>27.07466</v>
+      </c>
+      <c r="F60">
+        <v>27.10166</v>
+      </c>
+      <c r="G60">
+        <v>13.8</v>
+      </c>
+      <c r="H60">
+        <v>46.7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.324</v>
+      </c>
+      <c r="K60">
+        <v>0.031</v>
+      </c>
+      <c r="L60">
+        <v>0.293</v>
+      </c>
+      <c r="M60">
+        <v>4.978574942</v>
+      </c>
+      <c r="N60">
+        <v>-4.685574942</v>
+      </c>
+      <c r="O60">
+        <v>-1.12453798608</v>
+      </c>
+      <c r="P60">
+        <v>-3.56103695592</v>
+      </c>
+      <c r="Q60">
+        <v>-3.53003695592</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1662700999854561</v>
+      </c>
+      <c r="T60">
+        <v>2.668625520121947</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.01412452374810511</v>
+      </c>
+      <c r="W60">
+        <v>0.1811053249874731</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.05885218228377131</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.176618530486626</v>
+      </c>
+      <c r="C61">
+        <v>-0.6880484626220564</v>
+      </c>
+      <c r="D61">
+        <v>13.08088153737794</v>
+      </c>
+      <c r="E61">
+        <v>27.54193</v>
+      </c>
+      <c r="F61">
+        <v>27.56893</v>
+      </c>
+      <c r="G61">
+        <v>13.8</v>
+      </c>
+      <c r="H61">
+        <v>46.7</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.324</v>
+      </c>
+      <c r="K61">
+        <v>0.031</v>
+      </c>
+      <c r="L61">
+        <v>0.293</v>
+      </c>
+      <c r="M61">
+        <v>5.064412441</v>
+      </c>
+      <c r="N61">
+        <v>-4.771412441</v>
+      </c>
+      <c r="O61">
+        <v>-1.14513898584</v>
+      </c>
+      <c r="P61">
+        <v>-3.62627345516</v>
+      </c>
+      <c r="Q61">
+        <v>-3.59527345516</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1700986390094917</v>
+      </c>
+      <c r="T61">
+        <v>2.733713947441994</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.01388512504051011</v>
+      </c>
+      <c r="W61">
+        <v>0.1811493025300583</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.05785468766879209</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.178362530486626</v>
+      </c>
+      <c r="C62">
+        <v>-1.290257040292239</v>
+      </c>
+      <c r="D62">
+        <v>12.94594295970776</v>
+      </c>
+      <c r="E62">
+        <v>28.0092</v>
+      </c>
+      <c r="F62">
+        <v>28.0362</v>
+      </c>
+      <c r="G62">
+        <v>13.8</v>
+      </c>
+      <c r="H62">
+        <v>46.7</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.324</v>
+      </c>
+      <c r="K62">
+        <v>0.031</v>
+      </c>
+      <c r="L62">
+        <v>0.293</v>
+      </c>
+      <c r="M62">
+        <v>5.15024994</v>
+      </c>
+      <c r="N62">
+        <v>-4.85724994</v>
+      </c>
+      <c r="O62">
+        <v>-1.1657399856</v>
+      </c>
+      <c r="P62">
+        <v>-3.6915099544</v>
+      </c>
+      <c r="Q62">
+        <v>-3.6605099544</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1741186049847289</v>
+      </c>
+      <c r="T62">
+        <v>2.802056796128044</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.01365370628983494</v>
+      </c>
+      <c r="W62">
+        <v>0.1811918141545573</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.05689044287431222</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.180106530486626</v>
+      </c>
+      <c r="C63">
+        <v>-1.889710068993818</v>
+      </c>
+      <c r="D63">
+        <v>12.81375993100618</v>
+      </c>
+      <c r="E63">
+        <v>28.47647</v>
+      </c>
+      <c r="F63">
+        <v>28.50347</v>
+      </c>
+      <c r="G63">
+        <v>13.8</v>
+      </c>
+      <c r="H63">
+        <v>46.7</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.324</v>
+      </c>
+      <c r="K63">
+        <v>0.031</v>
+      </c>
+      <c r="L63">
+        <v>0.293</v>
+      </c>
+      <c r="M63">
+        <v>5.236087439</v>
+      </c>
+      <c r="N63">
+        <v>-4.943087439</v>
+      </c>
+      <c r="O63">
+        <v>-1.18634098536</v>
+      </c>
+      <c r="P63">
+        <v>-3.75674645364</v>
+      </c>
+      <c r="Q63">
+        <v>-3.72574645364</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1783447230612605</v>
+      </c>
+      <c r="T63">
+        <v>2.873904406285174</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.01342987503918191</v>
+      </c>
+      <c r="W63">
+        <v>0.1812329319553023</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.05595781266325794</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.181850530486626</v>
+      </c>
+      <c r="C64">
+        <v>-2.48649110125</v>
+      </c>
+      <c r="D64">
+        <v>12.68424889875</v>
+      </c>
+      <c r="E64">
+        <v>28.94374</v>
+      </c>
+      <c r="F64">
+        <v>28.97074</v>
+      </c>
+      <c r="G64">
+        <v>13.8</v>
+      </c>
+      <c r="H64">
+        <v>46.7</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.324</v>
+      </c>
+      <c r="K64">
+        <v>0.031</v>
+      </c>
+      <c r="L64">
+        <v>0.293</v>
+      </c>
+      <c r="M64">
+        <v>5.321924938</v>
+      </c>
+      <c r="N64">
+        <v>-5.028924938</v>
+      </c>
+      <c r="O64">
+        <v>-1.20694198512</v>
+      </c>
+      <c r="P64">
+        <v>-3.82198295288</v>
+      </c>
+      <c r="Q64">
+        <v>-3.79098295288</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1827932684049778</v>
+      </c>
+      <c r="T64">
+        <v>2.949533469608468</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.01321326415145316</v>
+      </c>
+      <c r="W64">
+        <v>0.1812727233753781</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.05505526729772159</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.183594530486626</v>
+      </c>
+      <c r="C65">
+        <v>-3.080680345460696</v>
+      </c>
+      <c r="D65">
+        <v>12.55732965453931</v>
+      </c>
+      <c r="E65">
+        <v>29.41101</v>
+      </c>
+      <c r="F65">
+        <v>29.43801</v>
+      </c>
+      <c r="G65">
+        <v>13.8</v>
+      </c>
+      <c r="H65">
+        <v>46.7</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.324</v>
+      </c>
+      <c r="K65">
+        <v>0.031</v>
+      </c>
+      <c r="L65">
+        <v>0.293</v>
+      </c>
+      <c r="M65">
+        <v>5.407762437000001</v>
+      </c>
+      <c r="N65">
+        <v>-5.114762437</v>
+      </c>
+      <c r="O65">
+        <v>-1.22754298488</v>
+      </c>
+      <c r="P65">
+        <v>-3.88721945212</v>
+      </c>
+      <c r="Q65">
+        <v>-3.85621945212</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1874822756591664</v>
+      </c>
+      <c r="T65">
+        <v>3.029250590408697</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.0130035297998428</v>
+      </c>
+      <c r="W65">
+        <v>0.1813112515757689</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.05418137416601165</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.185338530486626</v>
+      </c>
+      <c r="C66">
+        <v>-3.67235483155234</v>
+      </c>
+      <c r="D66">
+        <v>12.43292516844767</v>
+      </c>
+      <c r="E66">
+        <v>29.87828</v>
+      </c>
+      <c r="F66">
+        <v>29.90528</v>
+      </c>
+      <c r="G66">
+        <v>13.8</v>
+      </c>
+      <c r="H66">
+        <v>46.7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.324</v>
+      </c>
+      <c r="K66">
+        <v>0.031</v>
+      </c>
+      <c r="L66">
+        <v>0.293</v>
+      </c>
+      <c r="M66">
+        <v>5.493599936000001</v>
+      </c>
+      <c r="N66">
+        <v>-5.200599936000001</v>
+      </c>
+      <c r="O66">
+        <v>-1.24814398464</v>
+      </c>
+      <c r="P66">
+        <v>-3.95245595136</v>
+      </c>
+      <c r="Q66">
+        <v>-3.92145595136</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1924317833163655</v>
+      </c>
+      <c r="T66">
+        <v>3.113396440142272</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.01280034964672025</v>
+      </c>
+      <c r="W66">
+        <v>0.1813485757698975</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.05333479019466769</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.187082530486626</v>
+      </c>
+      <c r="C67">
+        <v>-4.261588566877862</v>
+      </c>
+      <c r="D67">
+        <v>12.31096143312214</v>
+      </c>
+      <c r="E67">
+        <v>30.34555</v>
+      </c>
+      <c r="F67">
+        <v>30.37255</v>
+      </c>
+      <c r="G67">
+        <v>13.8</v>
+      </c>
+      <c r="H67">
+        <v>46.7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.324</v>
+      </c>
+      <c r="K67">
+        <v>0.031</v>
+      </c>
+      <c r="L67">
+        <v>0.293</v>
+      </c>
+      <c r="M67">
+        <v>5.579437435000001</v>
+      </c>
+      <c r="N67">
+        <v>-5.286437435000001</v>
+      </c>
+      <c r="O67">
+        <v>-1.2687449844</v>
+      </c>
+      <c r="P67">
+        <v>-4.0176924506</v>
+      </c>
+      <c r="Q67">
+        <v>-3.9866924506</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1976641199825474</v>
+      </c>
+      <c r="T67">
+        <v>3.202350624146337</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.01260342119061686</v>
+      </c>
+      <c r="W67">
+        <v>0.1813847515272837</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.05251425496090367</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.188826530486626</v>
+      </c>
+      <c r="C68">
+        <v>-4.848452683029759</v>
+      </c>
+      <c r="D68">
+        <v>12.19136731697024</v>
+      </c>
+      <c r="E68">
+        <v>30.81282</v>
+      </c>
+      <c r="F68">
+        <v>30.83982</v>
+      </c>
+      <c r="G68">
+        <v>13.8</v>
+      </c>
+      <c r="H68">
+        <v>46.7</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.324</v>
+      </c>
+      <c r="K68">
+        <v>0.031</v>
+      </c>
+      <c r="L68">
+        <v>0.293</v>
+      </c>
+      <c r="M68">
+        <v>5.665274934000001</v>
+      </c>
+      <c r="N68">
+        <v>-5.372274934000001</v>
+      </c>
+      <c r="O68">
+        <v>-1.28934598416</v>
+      </c>
+      <c r="P68">
+        <v>-4.082928949840001</v>
+      </c>
+      <c r="Q68">
+        <v>-4.051928949840002</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2032042411585047</v>
+      </c>
+      <c r="T68">
+        <v>3.296537407209464</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.0124124602634863</v>
+      </c>
+      <c r="W68">
+        <v>0.1814198310495976</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.05171858443119293</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.190570530486626</v>
+      </c>
+      <c r="C69">
+        <v>-5.433015574178246</v>
+      </c>
+      <c r="D69">
+        <v>12.07407442582176</v>
+      </c>
+      <c r="E69">
+        <v>31.28009</v>
+      </c>
+      <c r="F69">
+        <v>31.30709000000001</v>
+      </c>
+      <c r="G69">
+        <v>13.8</v>
+      </c>
+      <c r="H69">
+        <v>46.7</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.324</v>
+      </c>
+      <c r="K69">
+        <v>0.031</v>
+      </c>
+      <c r="L69">
+        <v>0.293</v>
+      </c>
+      <c r="M69">
+        <v>5.751112433000001</v>
+      </c>
+      <c r="N69">
+        <v>-5.458112433000001</v>
+      </c>
+      <c r="O69">
+        <v>-1.30994698392</v>
+      </c>
+      <c r="P69">
+        <v>-4.14816544908</v>
+      </c>
+      <c r="Q69">
+        <v>-4.117165449080001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.209080127254217</v>
+      </c>
+      <c r="T69">
+        <v>3.396432480155206</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.01222719966253875</v>
+      </c>
+      <c r="W69">
+        <v>0.1814538634219916</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.05094666526057812</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1923145304866259</v>
+      </c>
+      <c r="C70">
+        <v>-6.01534302749981</v>
+      </c>
+      <c r="D70">
+        <v>11.95901697250019</v>
+      </c>
+      <c r="E70">
+        <v>31.74736</v>
+      </c>
+      <c r="F70">
+        <v>31.77436000000001</v>
+      </c>
+      <c r="G70">
+        <v>13.8</v>
+      </c>
+      <c r="H70">
+        <v>46.7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.324</v>
+      </c>
+      <c r="K70">
+        <v>0.031</v>
+      </c>
+      <c r="L70">
+        <v>0.293</v>
+      </c>
+      <c r="M70">
+        <v>5.836949932000001</v>
+      </c>
+      <c r="N70">
+        <v>-5.543949932000001</v>
+      </c>
+      <c r="O70">
+        <v>-1.33054798368</v>
+      </c>
+      <c r="P70">
+        <v>-4.213401948320001</v>
+      </c>
+      <c r="Q70">
+        <v>-4.182401948320002</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2153232562309112</v>
+      </c>
+      <c r="T70">
+        <v>3.502570995160056</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.01204738790279553</v>
+      </c>
+      <c r="W70">
+        <v>0.1814868948422564</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.0501974495949814</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.194058530486626</v>
+      </c>
+      <c r="C71">
+        <v>-6.595498346218836</v>
+      </c>
+      <c r="D71">
+        <v>11.84613165378117</v>
+      </c>
+      <c r="E71">
+        <v>32.21463000000001</v>
+      </c>
+      <c r="F71">
+        <v>32.24163000000001</v>
+      </c>
+      <c r="G71">
+        <v>13.8</v>
+      </c>
+      <c r="H71">
+        <v>46.7</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.324</v>
+      </c>
+      <c r="K71">
+        <v>0.031</v>
+      </c>
+      <c r="L71">
+        <v>0.293</v>
+      </c>
+      <c r="M71">
+        <v>5.922787431000001</v>
+      </c>
+      <c r="N71">
+        <v>-5.629787431000001</v>
+      </c>
+      <c r="O71">
+        <v>-1.35114898344</v>
+      </c>
+      <c r="P71">
+        <v>-4.278638447560001</v>
+      </c>
+      <c r="Q71">
+        <v>-4.247638447560001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.221969167722231</v>
+      </c>
+      <c r="T71">
+        <v>3.615557156294252</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.01187278807811733</v>
+      </c>
+      <c r="W71">
+        <v>0.1815189688300499</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.04946995032548895</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.195802530486626</v>
+      </c>
+      <c r="C72">
+        <v>-7.173542465745729</v>
+      </c>
+      <c r="D72">
+        <v>11.73535753425428</v>
+      </c>
+      <c r="E72">
+        <v>32.68190000000001</v>
+      </c>
+      <c r="F72">
+        <v>32.70890000000001</v>
+      </c>
+      <c r="G72">
+        <v>13.8</v>
+      </c>
+      <c r="H72">
+        <v>46.7</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.324</v>
+      </c>
+      <c r="K72">
+        <v>0.031</v>
+      </c>
+      <c r="L72">
+        <v>0.293</v>
+      </c>
+      <c r="M72">
+        <v>6.008624930000002</v>
+      </c>
+      <c r="N72">
+        <v>-5.715624930000001</v>
+      </c>
+      <c r="O72">
+        <v>-1.3717499832</v>
+      </c>
+      <c r="P72">
+        <v>-4.343874946800002</v>
+      </c>
+      <c r="Q72">
+        <v>-4.312874946800002</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2290581399796386</v>
+      </c>
+      <c r="T72">
+        <v>3.736075728170726</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.01170317681985852</v>
+      </c>
+      <c r="W72">
+        <v>0.181550126418192</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.04876323674941052</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.197546530486626</v>
+      </c>
+      <c r="C73">
+        <v>-7.749534063359409</v>
+      </c>
+      <c r="D73">
+        <v>11.62663593664059</v>
+      </c>
+      <c r="E73">
+        <v>33.14917</v>
+      </c>
+      <c r="F73">
+        <v>33.17617</v>
+      </c>
+      <c r="G73">
+        <v>13.8</v>
+      </c>
+      <c r="H73">
+        <v>46.7</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.324</v>
+      </c>
+      <c r="K73">
+        <v>0.031</v>
+      </c>
+      <c r="L73">
+        <v>0.293</v>
+      </c>
+      <c r="M73">
+        <v>6.094462429</v>
+      </c>
+      <c r="N73">
+        <v>-5.801462429</v>
+      </c>
+      <c r="O73">
+        <v>-1.39235098296</v>
+      </c>
+      <c r="P73">
+        <v>-4.40911144604</v>
+      </c>
+      <c r="Q73">
+        <v>-4.37811144604</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2366360068754882</v>
+      </c>
+      <c r="T73">
+        <v>3.864905925693854</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.01153834334352248</v>
+      </c>
+      <c r="W73">
+        <v>0.1815804063277949</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.04807643059801037</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.199290530486626</v>
+      </c>
+      <c r="C74">
+        <v>-8.323529661848795</v>
+      </c>
+      <c r="D74">
+        <v>11.5199103381512</v>
+      </c>
+      <c r="E74">
+        <v>33.61644</v>
+      </c>
+      <c r="F74">
+        <v>33.64344</v>
+      </c>
+      <c r="G74">
+        <v>13.8</v>
+      </c>
+      <c r="H74">
+        <v>46.7</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.324</v>
+      </c>
+      <c r="K74">
+        <v>0.031</v>
+      </c>
+      <c r="L74">
+        <v>0.293</v>
+      </c>
+      <c r="M74">
+        <v>6.180299928</v>
+      </c>
+      <c r="N74">
+        <v>-5.887299928</v>
+      </c>
+      <c r="O74">
+        <v>-1.41295198272</v>
+      </c>
+      <c r="P74">
+        <v>-4.47434794528</v>
+      </c>
+      <c r="Q74">
+        <v>-4.44334794528</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2447551499781842</v>
+      </c>
+      <c r="T74">
+        <v>4.002938280182921</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.01137808857486245</v>
+      </c>
+      <c r="W74">
+        <v>0.1816098451287978</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.04740870239526018</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.201034530486626</v>
+      </c>
+      <c r="C75">
+        <v>-8.895583727498035</v>
+      </c>
+      <c r="D75">
+        <v>11.41512627250197</v>
+      </c>
+      <c r="E75">
+        <v>34.08371</v>
+      </c>
+      <c r="F75">
+        <v>34.11071</v>
+      </c>
+      <c r="G75">
+        <v>13.8</v>
+      </c>
+      <c r="H75">
+        <v>46.7</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.324</v>
+      </c>
+      <c r="K75">
+        <v>0.031</v>
+      </c>
+      <c r="L75">
+        <v>0.293</v>
+      </c>
+      <c r="M75">
+        <v>6.266137427000001</v>
+      </c>
+      <c r="N75">
+        <v>-5.973137427000001</v>
+      </c>
+      <c r="O75">
+        <v>-1.43355298248</v>
+      </c>
+      <c r="P75">
+        <v>-4.539584444520001</v>
+      </c>
+      <c r="Q75">
+        <v>-4.508584444520001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2534757110884873</v>
+      </c>
+      <c r="T75">
+        <v>4.151195253523029</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.01122222434780954</v>
+      </c>
+      <c r="W75">
+        <v>0.1816384773873074</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.04675926811587305</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.202778530486626</v>
+      </c>
+      <c r="C76">
+        <v>-9.465748762772346</v>
+      </c>
+      <c r="D76">
+        <v>11.31223123722766</v>
+      </c>
+      <c r="E76">
+        <v>34.55098</v>
+      </c>
+      <c r="F76">
+        <v>34.57798</v>
+      </c>
+      <c r="G76">
+        <v>13.8</v>
+      </c>
+      <c r="H76">
+        <v>46.7</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.324</v>
+      </c>
+      <c r="K76">
+        <v>0.031</v>
+      </c>
+      <c r="L76">
+        <v>0.293</v>
+      </c>
+      <c r="M76">
+        <v>6.351974926</v>
+      </c>
+      <c r="N76">
+        <v>-6.058974926</v>
+      </c>
+      <c r="O76">
+        <v>-1.45415398224</v>
+      </c>
+      <c r="P76">
+        <v>-4.60482094376</v>
+      </c>
+      <c r="Q76">
+        <v>-4.57382094376</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2628670845918907</v>
+      </c>
+      <c r="T76">
+        <v>4.310856609427761</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.01107057266743373</v>
+      </c>
+      <c r="W76">
+        <v>0.1816663358009924</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.04612738611430722</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.204522530486626</v>
+      </c>
+      <c r="C77">
+        <v>-10.0340753940359</v>
+      </c>
+      <c r="D77">
+        <v>11.2111746059641</v>
+      </c>
+      <c r="E77">
+        <v>35.01825</v>
+      </c>
+      <c r="F77">
+        <v>35.04525</v>
+      </c>
+      <c r="G77">
+        <v>13.8</v>
+      </c>
+      <c r="H77">
+        <v>46.7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.324</v>
+      </c>
+      <c r="K77">
+        <v>0.031</v>
+      </c>
+      <c r="L77">
+        <v>0.293</v>
+      </c>
+      <c r="M77">
+        <v>6.437812425000001</v>
+      </c>
+      <c r="N77">
+        <v>-6.144812425</v>
+      </c>
+      <c r="O77">
+        <v>-1.474754982</v>
+      </c>
+      <c r="P77">
+        <v>-4.670057443</v>
+      </c>
+      <c r="Q77">
+        <v>-4.639057443</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2730097679755663</v>
+      </c>
+      <c r="T77">
+        <v>4.483290873804871</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.01092296503186795</v>
+      </c>
+      <c r="W77">
+        <v>0.1816934513236459</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.04551235429944978</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.206266530486626</v>
+      </c>
+      <c r="C78">
+        <v>-10.60061245460957</v>
+      </c>
+      <c r="D78">
+        <v>11.11190754539043</v>
+      </c>
+      <c r="E78">
+        <v>35.48552</v>
+      </c>
+      <c r="F78">
+        <v>35.51252</v>
+      </c>
+      <c r="G78">
+        <v>13.8</v>
+      </c>
+      <c r="H78">
+        <v>46.7</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.324</v>
+      </c>
+      <c r="K78">
+        <v>0.031</v>
+      </c>
+      <c r="L78">
+        <v>0.293</v>
+      </c>
+      <c r="M78">
+        <v>6.523649924000001</v>
+      </c>
+      <c r="N78">
+        <v>-6.230649924000001</v>
+      </c>
+      <c r="O78">
+        <v>-1.49535598176</v>
+      </c>
+      <c r="P78">
+        <v>-4.73529394224</v>
+      </c>
+      <c r="Q78">
+        <v>-4.704293942240001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2839976749745482</v>
+      </c>
+      <c r="T78">
+        <v>4.670094660213407</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.01077924180776442</v>
+      </c>
+      <c r="W78">
+        <v>0.1817198532799137</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.04491350753235179</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.208010530486626</v>
+      </c>
+      <c r="C79">
+        <v>-11.16540706345492</v>
+      </c>
+      <c r="D79">
+        <v>11.01438293654508</v>
+      </c>
+      <c r="E79">
+        <v>35.95279</v>
+      </c>
+      <c r="F79">
+        <v>35.97979</v>
+      </c>
+      <c r="G79">
+        <v>13.8</v>
+      </c>
+      <c r="H79">
+        <v>46.7</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.324</v>
+      </c>
+      <c r="K79">
+        <v>0.031</v>
+      </c>
+      <c r="L79">
+        <v>0.293</v>
+      </c>
+      <c r="M79">
+        <v>6.609487423</v>
+      </c>
+      <c r="N79">
+        <v>-6.316487423</v>
+      </c>
+      <c r="O79">
+        <v>-1.51595698152</v>
+      </c>
+      <c r="P79">
+        <v>-4.800530441479999</v>
+      </c>
+      <c r="Q79">
+        <v>-4.76953044148</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2959410521473547</v>
+      </c>
+      <c r="T79">
+        <v>4.87314225413573</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.01063925165441683</v>
+      </c>
+      <c r="W79">
+        <v>0.1817455694710836</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.04433021522673686</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.209754530486626</v>
+      </c>
+      <c r="C80">
+        <v>-11.72850469975081</v>
+      </c>
+      <c r="D80">
+        <v>10.91855530024919</v>
+      </c>
+      <c r="E80">
+        <v>36.42006000000001</v>
+      </c>
+      <c r="F80">
+        <v>36.44706000000001</v>
+      </c>
+      <c r="G80">
+        <v>13.8</v>
+      </c>
+      <c r="H80">
+        <v>46.7</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.324</v>
+      </c>
+      <c r="K80">
+        <v>0.031</v>
+      </c>
+      <c r="L80">
+        <v>0.293</v>
+      </c>
+      <c r="M80">
+        <v>6.695324922000001</v>
+      </c>
+      <c r="N80">
+        <v>-6.402324922000001</v>
+      </c>
+      <c r="O80">
+        <v>-1.53655798128</v>
+      </c>
+      <c r="P80">
+        <v>-4.86576694072</v>
+      </c>
+      <c r="Q80">
+        <v>-4.834766940720001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3089701908813254</v>
+      </c>
+      <c r="T80">
+        <v>5.094648720232809</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.01050285099218072</v>
+      </c>
+      <c r="W80">
+        <v>0.1817706262727364</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.04376187913408636</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.211498530486626</v>
+      </c>
+      <c r="C81">
+        <v>-12.28994927361051</v>
+      </c>
+      <c r="D81">
+        <v>10.8243807263895</v>
+      </c>
+      <c r="E81">
+        <v>36.88733000000001</v>
+      </c>
+      <c r="F81">
+        <v>36.91433000000001</v>
+      </c>
+      <c r="G81">
+        <v>13.8</v>
+      </c>
+      <c r="H81">
+        <v>46.7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.324</v>
+      </c>
+      <c r="K81">
+        <v>0.031</v>
+      </c>
+      <c r="L81">
+        <v>0.293</v>
+      </c>
+      <c r="M81">
+        <v>6.781162421000001</v>
+      </c>
+      <c r="N81">
+        <v>-6.488162421000001</v>
+      </c>
+      <c r="O81">
+        <v>-1.55715898104</v>
+      </c>
+      <c r="P81">
+        <v>-4.931003439960001</v>
+      </c>
+      <c r="Q81">
+        <v>-4.900003439960002</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3232401999709124</v>
+      </c>
+      <c r="T81">
+        <v>5.337251040243896</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.01036990351126704</v>
+      </c>
+      <c r="W81">
+        <v>0.1817950487249803</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.043207931296946</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.213242530486626</v>
+      </c>
+      <c r="C82">
+        <v>-12.84978319317049</v>
+      </c>
+      <c r="D82">
+        <v>10.73181680682952</v>
+      </c>
+      <c r="E82">
+        <v>37.3546</v>
+      </c>
+      <c r="F82">
+        <v>37.38160000000001</v>
+      </c>
+      <c r="G82">
+        <v>13.8</v>
+      </c>
+      <c r="H82">
+        <v>46.7</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.324</v>
+      </c>
+      <c r="K82">
+        <v>0.031</v>
+      </c>
+      <c r="L82">
+        <v>0.293</v>
+      </c>
+      <c r="M82">
+        <v>6.866999920000001</v>
+      </c>
+      <c r="N82">
+        <v>-6.573999920000001</v>
+      </c>
+      <c r="O82">
+        <v>-1.5777599808</v>
+      </c>
+      <c r="P82">
+        <v>-4.996239939200001</v>
+      </c>
+      <c r="Q82">
+        <v>-4.965239939200001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.338937209969458</v>
+      </c>
+      <c r="T82">
+        <v>5.60411359225609</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.0102402797173762</v>
+      </c>
+      <c r="W82">
+        <v>0.181818860615918</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.04266783215573422</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.214986530486626</v>
+      </c>
+      <c r="C83">
+        <v>-13.40804742826614</v>
+      </c>
+      <c r="D83">
+        <v>10.64082257173386</v>
+      </c>
+      <c r="E83">
+        <v>37.82187</v>
+      </c>
+      <c r="F83">
+        <v>37.84887000000001</v>
+      </c>
+      <c r="G83">
+        <v>13.8</v>
+      </c>
+      <c r="H83">
+        <v>46.7</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.324</v>
+      </c>
+      <c r="K83">
+        <v>0.031</v>
+      </c>
+      <c r="L83">
+        <v>0.293</v>
+      </c>
+      <c r="M83">
+        <v>6.952837419000001</v>
+      </c>
+      <c r="N83">
+        <v>-6.659837419</v>
+      </c>
+      <c r="O83">
+        <v>-1.59836098056</v>
+      </c>
+      <c r="P83">
+        <v>-5.061476438440001</v>
+      </c>
+      <c r="Q83">
+        <v>-5.030476438440001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3562865368099558</v>
+      </c>
+      <c r="T83">
+        <v>5.899066939216937</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.01011385651098884</v>
+      </c>
+      <c r="W83">
+        <v>0.1818420845589314</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.04214106879578683</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.216730530486626</v>
+      </c>
+      <c r="C84">
+        <v>-13.96478157089533</v>
+      </c>
+      <c r="D84">
+        <v>10.55135842910467</v>
+      </c>
+      <c r="E84">
+        <v>38.28914</v>
+      </c>
+      <c r="F84">
+        <v>38.31614</v>
+      </c>
+      <c r="G84">
+        <v>13.8</v>
+      </c>
+      <c r="H84">
+        <v>46.7</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.324</v>
+      </c>
+      <c r="K84">
+        <v>0.031</v>
+      </c>
+      <c r="L84">
+        <v>0.293</v>
+      </c>
+      <c r="M84">
+        <v>7.038674918000001</v>
+      </c>
+      <c r="N84">
+        <v>-6.745674918000001</v>
+      </c>
+      <c r="O84">
+        <v>-1.61896198032</v>
+      </c>
+      <c r="P84">
+        <v>-5.126712937680001</v>
+      </c>
+      <c r="Q84">
+        <v>-5.095712937680001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3755635666327311</v>
+      </c>
+      <c r="T84">
+        <v>6.226792880284545</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.009990516797440197</v>
+      </c>
+      <c r="W84">
+        <v>0.1818647420643102</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.04162715332266753</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.218474530486626</v>
+      </c>
+      <c r="C85">
+        <v>-14.52002389265721</v>
+      </c>
+      <c r="D85">
+        <v>10.4633861073428</v>
+      </c>
+      <c r="E85">
+        <v>38.75641</v>
+      </c>
+      <c r="F85">
+        <v>38.78341</v>
+      </c>
+      <c r="G85">
+        <v>13.8</v>
+      </c>
+      <c r="H85">
+        <v>46.7</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.324</v>
+      </c>
+      <c r="K85">
+        <v>0.031</v>
+      </c>
+      <c r="L85">
+        <v>0.293</v>
+      </c>
+      <c r="M85">
+        <v>7.124512417000001</v>
+      </c>
+      <c r="N85">
+        <v>-6.831512417000001</v>
+      </c>
+      <c r="O85">
+        <v>-1.63956298008</v>
+      </c>
+      <c r="P85">
+        <v>-5.191949436920001</v>
+      </c>
+      <c r="Q85">
+        <v>-5.160949436920001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3971084823170094</v>
+      </c>
+      <c r="T85">
+        <v>6.59307481441893</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.009870149125181882</v>
+      </c>
+      <c r="W85">
+        <v>0.1818868536057041</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.04112562135492448</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.220218530486626</v>
+      </c>
+      <c r="C86">
+        <v>-15.07381139934144</v>
+      </c>
+      <c r="D86">
+        <v>10.37686860065856</v>
+      </c>
+      <c r="E86">
+        <v>39.22368</v>
+      </c>
+      <c r="F86">
+        <v>39.25068</v>
+      </c>
+      <c r="G86">
+        <v>13.8</v>
+      </c>
+      <c r="H86">
+        <v>46.7</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.324</v>
+      </c>
+      <c r="K86">
+        <v>0.031</v>
+      </c>
+      <c r="L86">
+        <v>0.293</v>
+      </c>
+      <c r="M86">
+        <v>7.210349916</v>
+      </c>
+      <c r="N86">
+        <v>-6.917349916</v>
+      </c>
+      <c r="O86">
+        <v>-1.66016397984</v>
+      </c>
+      <c r="P86">
+        <v>-5.25718593616</v>
+      </c>
+      <c r="Q86">
+        <v>-5.22618593616</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.4213465124618223</v>
+      </c>
+      <c r="T86">
+        <v>7.00514199032011</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.009752647349882097</v>
+      </c>
+      <c r="W86">
+        <v>0.1819084386818267</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.04063603062450871</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.221962530486626</v>
+      </c>
+      <c r="C87">
+        <v>-15.6261798828314</v>
+      </c>
+      <c r="D87">
+        <v>10.2917701171686</v>
+      </c>
+      <c r="E87">
+        <v>39.69095</v>
+      </c>
+      <c r="F87">
+        <v>39.71795</v>
+      </c>
+      <c r="G87">
+        <v>13.8</v>
+      </c>
+      <c r="H87">
+        <v>46.7</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.324</v>
+      </c>
+      <c r="K87">
+        <v>0.031</v>
+      </c>
+      <c r="L87">
+        <v>0.293</v>
+      </c>
+      <c r="M87">
+        <v>7.296187415</v>
+      </c>
+      <c r="N87">
+        <v>-7.003187415</v>
+      </c>
+      <c r="O87">
+        <v>-1.6807649796</v>
+      </c>
+      <c r="P87">
+        <v>-5.3224224354</v>
+      </c>
+      <c r="Q87">
+        <v>-5.2914224354</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4488162799592772</v>
+      </c>
+      <c r="T87">
+        <v>7.472151456341452</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.009637910322236426</v>
+      </c>
+      <c r="W87">
+        <v>0.1819295158738052</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.04015795967598512</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.223706530486626</v>
+      </c>
+      <c r="C88">
+        <v>-16.17716397047418</v>
+      </c>
+      <c r="D88">
+        <v>10.20805602952582</v>
+      </c>
+      <c r="E88">
+        <v>40.15822</v>
+      </c>
+      <c r="F88">
+        <v>40.18522</v>
+      </c>
+      <c r="G88">
+        <v>13.8</v>
+      </c>
+      <c r="H88">
+        <v>46.7</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.324</v>
+      </c>
+      <c r="K88">
+        <v>0.031</v>
+      </c>
+      <c r="L88">
+        <v>0.293</v>
+      </c>
+      <c r="M88">
+        <v>7.382024914</v>
+      </c>
+      <c r="N88">
+        <v>-7.089024914</v>
+      </c>
+      <c r="O88">
+        <v>-1.70136597936</v>
+      </c>
+      <c r="P88">
+        <v>-5.38765893464</v>
+      </c>
+      <c r="Q88">
+        <v>-5.35665893464</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4802102999563684</v>
+      </c>
+      <c r="T88">
+        <v>8.005876560365841</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.009525841597559257</v>
+      </c>
+      <c r="W88">
+        <v>0.1819501028985284</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.03969100665649694</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.225450530486626</v>
+      </c>
+      <c r="C89">
+        <v>-16.72679717206065</v>
+      </c>
+      <c r="D89">
+        <v>10.12569282793935</v>
+      </c>
+      <c r="E89">
+        <v>40.62549</v>
+      </c>
+      <c r="F89">
+        <v>40.65249</v>
+      </c>
+      <c r="G89">
+        <v>13.8</v>
+      </c>
+      <c r="H89">
+        <v>46.7</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.324</v>
+      </c>
+      <c r="K89">
+        <v>0.031</v>
+      </c>
+      <c r="L89">
+        <v>0.293</v>
+      </c>
+      <c r="M89">
+        <v>7.467862413</v>
+      </c>
+      <c r="N89">
+        <v>-7.174862413</v>
+      </c>
+      <c r="O89">
+        <v>-1.72196697912</v>
+      </c>
+      <c r="P89">
+        <v>-5.45289543388</v>
+      </c>
+      <c r="Q89">
+        <v>-5.421895433880001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.5164341691837813</v>
+      </c>
+      <c r="T89">
+        <v>8.62171321885552</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.009416349165403405</v>
+      </c>
+      <c r="W89">
+        <v>0.1819702166583154</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.03923478818918091</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.227194530486626</v>
+      </c>
+      <c r="C90">
+        <v>-17.27511192454934</v>
+      </c>
+      <c r="D90">
+        <v>10.04464807545066</v>
+      </c>
+      <c r="E90">
+        <v>41.09276000000001</v>
+      </c>
+      <c r="F90">
+        <v>41.11976000000001</v>
+      </c>
+      <c r="G90">
+        <v>13.8</v>
+      </c>
+      <c r="H90">
+        <v>46.7</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.324</v>
+      </c>
+      <c r="K90">
+        <v>0.031</v>
+      </c>
+      <c r="L90">
+        <v>0.293</v>
+      </c>
+      <c r="M90">
+        <v>7.553699912000002</v>
+      </c>
+      <c r="N90">
+        <v>-7.260699912000002</v>
+      </c>
+      <c r="O90">
+        <v>-1.74256797888</v>
+      </c>
+      <c r="P90">
+        <v>-5.518131933120001</v>
+      </c>
+      <c r="Q90">
+        <v>-5.487131933120001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.5586953499490964</v>
+      </c>
+      <c r="T90">
+        <v>9.340189320426814</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.009309345197614729</v>
+      </c>
+      <c r="W90">
+        <v>0.1819898732871982</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.03878893832339469</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.228938530486626</v>
+      </c>
+      <c r="C91">
+        <v>-17.82213963465956</v>
+      </c>
+      <c r="D91">
+        <v>9.96489036534045</v>
+      </c>
+      <c r="E91">
+        <v>41.56003</v>
+      </c>
+      <c r="F91">
+        <v>41.58703000000001</v>
+      </c>
+      <c r="G91">
+        <v>13.8</v>
+      </c>
+      <c r="H91">
+        <v>46.7</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.324</v>
+      </c>
+      <c r="K91">
+        <v>0.031</v>
+      </c>
+      <c r="L91">
+        <v>0.293</v>
+      </c>
+      <c r="M91">
+        <v>7.639537411000001</v>
+      </c>
+      <c r="N91">
+        <v>-7.346537411000001</v>
+      </c>
+      <c r="O91">
+        <v>-1.76316897864</v>
+      </c>
+      <c r="P91">
+        <v>-5.58336843236</v>
+      </c>
+      <c r="Q91">
+        <v>-5.552368432360001</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.6086403817626508</v>
+      </c>
+      <c r="T91">
+        <v>10.18929744046562</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.009204745813371867</v>
+      </c>
+      <c r="W91">
+        <v>0.1820090881940836</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.03835310755571608</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.230682530486626</v>
+      </c>
+      <c r="C92">
+        <v>-18.36791071945136</v>
+      </c>
+      <c r="D92">
+        <v>9.886389280548649</v>
+      </c>
+      <c r="E92">
+        <v>42.0273</v>
+      </c>
+      <c r="F92">
+        <v>42.0543</v>
+      </c>
+      <c r="G92">
+        <v>13.8</v>
+      </c>
+      <c r="H92">
+        <v>46.7</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.324</v>
+      </c>
+      <c r="K92">
+        <v>0.031</v>
+      </c>
+      <c r="L92">
+        <v>0.293</v>
+      </c>
+      <c r="M92">
+        <v>7.725374910000001</v>
+      </c>
+      <c r="N92">
+        <v>-7.432374910000001</v>
+      </c>
+      <c r="O92">
+        <v>-1.7837699784</v>
+      </c>
+      <c r="P92">
+        <v>-5.648604931600001</v>
+      </c>
+      <c r="Q92">
+        <v>-5.617604931600002</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.668574419938916</v>
+      </c>
+      <c r="T92">
+        <v>11.20822718451218</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.009102470859889956</v>
+      </c>
+      <c r="W92">
+        <v>0.1820278761030382</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.03792696191620815</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.232426530486626</v>
+      </c>
+      <c r="C93">
+        <v>-18.91245464500236</v>
+      </c>
+      <c r="D93">
+        <v>9.809115354997648</v>
+      </c>
+      <c r="E93">
+        <v>42.49457</v>
+      </c>
+      <c r="F93">
+        <v>42.52157</v>
+      </c>
+      <c r="G93">
+        <v>13.8</v>
+      </c>
+      <c r="H93">
+        <v>46.7</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.324</v>
+      </c>
+      <c r="K93">
+        <v>0.031</v>
+      </c>
+      <c r="L93">
+        <v>0.293</v>
+      </c>
+      <c r="M93">
+        <v>7.811212409000001</v>
+      </c>
+      <c r="N93">
+        <v>-7.518212409000001</v>
+      </c>
+      <c r="O93">
+        <v>-1.80437097816</v>
+      </c>
+      <c r="P93">
+        <v>-5.713841430840001</v>
+      </c>
+      <c r="Q93">
+        <v>-5.682841430840001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.7418271332654622</v>
+      </c>
+      <c r="T93">
+        <v>12.45358576056909</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.009002443707583475</v>
+      </c>
+      <c r="W93">
+        <v>0.1820462510909169</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.03751018211493118</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.234170530486626</v>
+      </c>
+      <c r="C94">
+        <v>-19.45579996328481</v>
+      </c>
+      <c r="D94">
+        <v>9.733040036715188</v>
+      </c>
+      <c r="E94">
+        <v>42.96184</v>
+      </c>
+      <c r="F94">
+        <v>42.98884</v>
+      </c>
+      <c r="G94">
+        <v>13.8</v>
+      </c>
+      <c r="H94">
+        <v>46.7</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.324</v>
+      </c>
+      <c r="K94">
+        <v>0.031</v>
+      </c>
+      <c r="L94">
+        <v>0.293</v>
+      </c>
+      <c r="M94">
+        <v>7.897049908000001</v>
+      </c>
+      <c r="N94">
+        <v>-7.604049908</v>
+      </c>
+      <c r="O94">
+        <v>-1.82497197792</v>
+      </c>
+      <c r="P94">
+        <v>-5.779077930080001</v>
+      </c>
+      <c r="Q94">
+        <v>-5.748077930080001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.8333930249236453</v>
+      </c>
+      <c r="T94">
+        <v>14.01028398064023</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.008904591058588001</v>
+      </c>
+      <c r="W94">
+        <v>0.1820642266225374</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.03710246274411666</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.235914530486626</v>
+      </c>
+      <c r="C95">
+        <v>-19.99797434733989</v>
+      </c>
+      <c r="D95">
+        <v>9.658135652660111</v>
+      </c>
+      <c r="E95">
+        <v>43.42911</v>
+      </c>
+      <c r="F95">
+        <v>43.45611</v>
+      </c>
+      <c r="G95">
+        <v>13.8</v>
+      </c>
+      <c r="H95">
+        <v>46.7</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.324</v>
+      </c>
+      <c r="K95">
+        <v>0.031</v>
+      </c>
+      <c r="L95">
+        <v>0.293</v>
+      </c>
+      <c r="M95">
+        <v>7.982887407000001</v>
+      </c>
+      <c r="N95">
+        <v>-7.689887407000001</v>
+      </c>
+      <c r="O95">
+        <v>-1.84557297768</v>
+      </c>
+      <c r="P95">
+        <v>-5.844314429320001</v>
+      </c>
+      <c r="Q95">
+        <v>-5.813314429320001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.9511205999127376</v>
+      </c>
+      <c r="T95">
+        <v>16.01175312073169</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.008808842767635442</v>
+      </c>
+      <c r="W95">
+        <v>0.1820818155835854</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.03670351153181439</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2376585304866259</v>
+      </c>
+      <c r="C96">
+        <v>-20.53900462484013</v>
+      </c>
+      <c r="D96">
+        <v>9.584375375159878</v>
+      </c>
+      <c r="E96">
+        <v>43.89638000000001</v>
+      </c>
+      <c r="F96">
+        <v>43.92338000000001</v>
+      </c>
+      <c r="G96">
+        <v>13.8</v>
+      </c>
+      <c r="H96">
+        <v>46.7</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.324</v>
+      </c>
+      <c r="K96">
+        <v>0.031</v>
+      </c>
+      <c r="L96">
+        <v>0.293</v>
+      </c>
+      <c r="M96">
+        <v>8.068724906000002</v>
+      </c>
+      <c r="N96">
+        <v>-7.775724906000002</v>
+      </c>
+      <c r="O96">
+        <v>-1.86617397744</v>
+      </c>
+      <c r="P96">
+        <v>-5.909550928560002</v>
+      </c>
+      <c r="Q96">
+        <v>-5.878550928560002</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.108090699898194</v>
+      </c>
+      <c r="T96">
+        <v>18.68037864085364</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.008715131674362725</v>
+      </c>
+      <c r="W96">
+        <v>0.1820990303114196</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.03631304864317808</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.239402530486626</v>
+      </c>
+      <c r="C97">
+        <v>-21.07891681012566</v>
+      </c>
+      <c r="D97">
+        <v>9.511733189874343</v>
+      </c>
+      <c r="E97">
+        <v>44.36365000000001</v>
+      </c>
+      <c r="F97">
+        <v>44.39065000000001</v>
+      </c>
+      <c r="G97">
+        <v>13.8</v>
+      </c>
+      <c r="H97">
+        <v>46.7</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.324</v>
+      </c>
+      <c r="K97">
+        <v>0.031</v>
+      </c>
+      <c r="L97">
+        <v>0.293</v>
+      </c>
+      <c r="M97">
+        <v>8.154562405000002</v>
+      </c>
+      <c r="N97">
+        <v>-7.861562405000002</v>
+      </c>
+      <c r="O97">
+        <v>-1.8867749772</v>
+      </c>
+      <c r="P97">
+        <v>-5.974787427800001</v>
+      </c>
+      <c r="Q97">
+        <v>-5.943787427800001</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.327848839877834</v>
+      </c>
+      <c r="T97">
+        <v>22.41645436902439</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.008623393446211537</v>
+      </c>
+      <c r="W97">
+        <v>0.1821158826239309</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.03593080602588139</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.241146530486626</v>
+      </c>
+      <c r="C98">
+        <v>-21.61773613479453</v>
+      </c>
+      <c r="D98">
+        <v>9.440183865205466</v>
+      </c>
+      <c r="E98">
+        <v>44.83092</v>
+      </c>
+      <c r="F98">
+        <v>44.85792</v>
+      </c>
+      <c r="G98">
+        <v>13.8</v>
+      </c>
+      <c r="H98">
+        <v>46.7</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.324</v>
+      </c>
+      <c r="K98">
+        <v>0.031</v>
+      </c>
+      <c r="L98">
+        <v>0.293</v>
+      </c>
+      <c r="M98">
+        <v>8.240399904</v>
+      </c>
+      <c r="N98">
+        <v>-7.947399904</v>
+      </c>
+      <c r="O98">
+        <v>-1.90737597696</v>
+      </c>
+      <c r="P98">
+        <v>-6.04002392704</v>
+      </c>
+      <c r="Q98">
+        <v>-6.00902392704</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.657486049847288</v>
+      </c>
+      <c r="T98">
+        <v>28.02056796128042</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.008533566431146836</v>
+      </c>
+      <c r="W98">
+        <v>0.1821323838465983</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.03555652679644516</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.242890530486626</v>
+      </c>
+      <c r="C99">
+        <v>-22.15548707692271</v>
+      </c>
+      <c r="D99">
+        <v>9.369702923077286</v>
+      </c>
+      <c r="E99">
+        <v>45.29819</v>
+      </c>
+      <c r="F99">
+        <v>45.32519</v>
+      </c>
+      <c r="G99">
+        <v>13.8</v>
+      </c>
+      <c r="H99">
+        <v>46.7</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.324</v>
+      </c>
+      <c r="K99">
+        <v>0.031</v>
+      </c>
+      <c r="L99">
+        <v>0.293</v>
+      </c>
+      <c r="M99">
+        <v>8.326237403</v>
+      </c>
+      <c r="N99">
+        <v>-8.033237403000001</v>
+      </c>
+      <c r="O99">
+        <v>-1.92797697672</v>
+      </c>
+      <c r="P99">
+        <v>-6.105260426280001</v>
+      </c>
+      <c r="Q99">
+        <v>-6.074260426280001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.206881399796385</v>
+      </c>
+      <c r="T99">
+        <v>37.36075728170723</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.008445591519485526</v>
+      </c>
+      <c r="W99">
+        <v>0.1821485448378705</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.03518996466452295</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.244634530486626</v>
+      </c>
+      <c r="C100">
+        <v>-22.69219338898478</v>
+      </c>
+      <c r="D100">
+        <v>9.30026661101523</v>
+      </c>
+      <c r="E100">
+        <v>45.76546</v>
+      </c>
+      <c r="F100">
+        <v>45.79246000000001</v>
+      </c>
+      <c r="G100">
+        <v>13.8</v>
+      </c>
+      <c r="H100">
+        <v>46.7</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.324</v>
+      </c>
+      <c r="K100">
+        <v>0.031</v>
+      </c>
+      <c r="L100">
+        <v>0.293</v>
+      </c>
+      <c r="M100">
+        <v>8.412074902000001</v>
+      </c>
+      <c r="N100">
+        <v>-8.119074902000001</v>
+      </c>
+      <c r="O100">
+        <v>-1.94857797648</v>
+      </c>
+      <c r="P100">
+        <v>-6.170496925520001</v>
+      </c>
+      <c r="Q100">
+        <v>-6.139496925520001</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.305672099694577</v>
+      </c>
+      <c r="T100">
+        <v>56.04113592256085</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.008359412014184655</v>
+      </c>
+      <c r="W100">
+        <v>0.1821643760129943</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.03483088339243601</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.246378530486626</v>
+      </c>
+      <c r="C101">
+        <v>-23.2278781245423</v>
+      </c>
+      <c r="D101">
+        <v>9.231851875457702</v>
+      </c>
+      <c r="E101">
+        <v>46.23273</v>
+      </c>
+      <c r="F101">
+        <v>46.25973</v>
+      </c>
+      <c r="G101">
+        <v>13.8</v>
+      </c>
+      <c r="H101">
+        <v>46.7</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.324</v>
+      </c>
+      <c r="K101">
+        <v>0.031</v>
+      </c>
+      <c r="L101">
+        <v>0.293</v>
+      </c>
+      <c r="M101">
+        <v>8.497912401000001</v>
+      </c>
+      <c r="N101">
+        <v>-8.204912401000001</v>
+      </c>
+      <c r="O101">
+        <v>-1.96917897624</v>
+      </c>
+      <c r="P101">
+        <v>-6.235733424760001</v>
+      </c>
+      <c r="Q101">
+        <v>-6.204733424760001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>6.602044199389153</v>
+      </c>
+      <c r="T101">
+        <v>112.0822718451217</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.00827497350899087</v>
+      </c>
+      <c r="W101">
+        <v>0.1821798873663984</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.03447905628746184</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
